--- a/data/2019USCitiesIndexResults.xlsx
+++ b/data/2019USCitiesIndexResults.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alainnalynch/Documents/GitHub/CitiesIndex2019/analysis/outputs/website/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c7355\Desktop\sustainable\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9FD253-E319-9D43-9976-F578F6388CCB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849C2C90-246D-4196-BB57-7CB66B02B078}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31040" yWindow="780" windowWidth="31040" windowHeight="16320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="315" windowWidth="22455" windowHeight="15570" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
     <sheet name="Results" sheetId="3" r:id="rId2"/>
     <sheet name="Codebook" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,6 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="676">
   <si>
     <t xml:space="preserve">Data last updated </t>
   </si>
@@ -2054,6 +2055,12 @@
   </si>
   <si>
     <t>sdg10v7_segregation</t>
+  </si>
+  <si>
+    <t>San Juan</t>
+  </si>
+  <si>
+    <t>San Juan, PR</t>
   </si>
 </sst>
 </file>
@@ -2129,7 +2136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2151,6 +2158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2526,36 +2534,36 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.83203125" customWidth="1"/>
+    <col min="1" max="1" width="35.875" customWidth="1"/>
     <col min="2" max="2" width="110" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2563,7 +2571,7 @@
         <v>43654</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -2571,12 +2579,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2584,7 +2592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -2592,7 +2600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2600,7 +2608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2608,7 +2616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -2616,7 +2624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>658</v>
       </c>
@@ -2624,7 +2632,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>660</v>
       </c>
@@ -2643,33 +2651,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:EE106"/>
+  <dimension ref="A1:EE107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane xSplit="3975" ySplit="1575" topLeftCell="K85" activePane="bottomRight"/>
+      <selection activeCell="AX26" sqref="AX26"/>
+      <selection pane="topRight" activeCell="AR1" sqref="AR1"/>
+      <selection pane="bottomLeft" activeCell="AH15" sqref="AH15"/>
+      <selection pane="bottomRight" activeCell="G107" sqref="G107:U107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="29.5" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" customWidth="1"/>
+    <col min="7" max="7" width="6.375" customWidth="1"/>
     <col min="8" max="8" width="6.5" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" customWidth="1"/>
+    <col min="9" max="9" width="6.125" customWidth="1"/>
     <col min="10" max="11" width="6.5" customWidth="1"/>
-    <col min="12" max="12" width="6.83203125" customWidth="1"/>
-    <col min="13" max="13" width="6.1640625" customWidth="1"/>
-    <col min="14" max="14" width="6.83203125" customWidth="1"/>
+    <col min="12" max="12" width="6.875" customWidth="1"/>
+    <col min="13" max="13" width="6.125" customWidth="1"/>
+    <col min="14" max="14" width="6.875" customWidth="1"/>
     <col min="15" max="15" width="6" customWidth="1"/>
-    <col min="16" max="16" width="6.1640625" customWidth="1"/>
-    <col min="17" max="17" width="6.33203125" customWidth="1"/>
+    <col min="16" max="16" width="6.125" customWidth="1"/>
+    <col min="17" max="17" width="6.375" customWidth="1"/>
     <col min="18" max="18" width="6.5" customWidth="1"/>
-    <col min="19" max="20" width="6.33203125" customWidth="1"/>
+    <col min="19" max="20" width="6.375" customWidth="1"/>
     <col min="21" max="21" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:135" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:135" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>353</v>
       </c>
@@ -3076,7 +3088,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>41860</v>
       </c>
@@ -3099,7 +3111,7 @@
         <v>84.363151550292969</v>
       </c>
       <c r="H2" s="1">
-        <v>67.510513305664062</v>
+        <v>67.510513305664063</v>
       </c>
       <c r="I2" s="1">
         <v>85.557540893554688</v>
@@ -3120,7 +3132,7 @@
         <v>78.512458801269531</v>
       </c>
       <c r="O2" s="1">
-        <v>82.636672973632812</v>
+        <v>82.636672973632813</v>
       </c>
       <c r="P2" s="1">
         <v>61.341136932373047</v>
@@ -3177,7 +3189,7 @@
         <v>83.545562744140625</v>
       </c>
       <c r="AH2" s="1">
-        <v>82.925308227539062</v>
+        <v>82.925308227539063</v>
       </c>
       <c r="AI2" s="1">
         <v>100</v>
@@ -3192,7 +3204,7 @@
         <v>100</v>
       </c>
       <c r="AM2" s="1">
-        <v>53.525100708007812</v>
+        <v>53.525100708007813</v>
       </c>
       <c r="AN2" s="1">
         <v>52.207386016845703</v>
@@ -3276,7 +3288,7 @@
         <v>41.935478210449219</v>
       </c>
       <c r="BO2" s="1">
-        <v>87.305557250976562</v>
+        <v>87.305557250976563</v>
       </c>
       <c r="BP2" s="1">
         <v>22.287746429443359</v>
@@ -3483,7 +3495,7 @@
         <v>5.8186640739440918</v>
       </c>
     </row>
-    <row r="3" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>41940</v>
       </c>
@@ -3542,7 +3554,7 @@
         <v>56.750179290771484</v>
       </c>
       <c r="T3" s="1">
-        <v>81.466201782226562</v>
+        <v>81.466201782226563</v>
       </c>
       <c r="U3" s="1">
         <v>69.243370056152344</v>
@@ -3572,7 +3584,7 @@
         <v>100</v>
       </c>
       <c r="AD3" s="1">
-        <v>86.252578735351562</v>
+        <v>86.252578735351563</v>
       </c>
       <c r="AE3" s="1">
         <v>66.278968811035156</v>
@@ -3584,7 +3596,7 @@
         <v>100</v>
       </c>
       <c r="AH3" s="1">
-        <v>98.759963989257812</v>
+        <v>98.759963989257813</v>
       </c>
       <c r="AI3" s="1">
         <v>100</v>
@@ -3617,7 +3629,7 @@
         <v>72.3594970703125</v>
       </c>
       <c r="AS3" s="1">
-        <v>87.445571899414062</v>
+        <v>87.445571899414063</v>
       </c>
       <c r="AT3" s="1">
         <v>0</v>
@@ -3659,7 +3671,7 @@
         <v>76.713508605957031</v>
       </c>
       <c r="BG3" s="1">
-        <v>71.619155883789062</v>
+        <v>71.619155883789063</v>
       </c>
       <c r="BH3" s="1">
         <v>100</v>
@@ -3890,7 +3902,7 @@
         <v>0.24587036669254303</v>
       </c>
     </row>
-    <row r="4" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>47900</v>
       </c>
@@ -3910,7 +3922,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="1">
-        <v>84.421646118164062</v>
+        <v>84.421646118164063</v>
       </c>
       <c r="H4" s="1">
         <v>55.502262115478516</v>
@@ -3946,10 +3958,10 @@
         <v>69.247428894042969</v>
       </c>
       <c r="S4" s="1">
-        <v>81.704544067382812</v>
+        <v>81.704544067382813</v>
       </c>
       <c r="T4" s="1">
-        <v>81.802932739257812</v>
+        <v>81.802932739257813</v>
       </c>
       <c r="U4" s="1">
         <v>69.209098815917969</v>
@@ -4006,10 +4018,10 @@
         <v>95.070419311523438</v>
       </c>
       <c r="AM4" s="1">
-        <v>74.407058715820312</v>
+        <v>74.407058715820313</v>
       </c>
       <c r="AN4" s="1">
-        <v>61.967910766601562</v>
+        <v>61.967910766601563</v>
       </c>
       <c r="AO4" s="1">
         <v>44.500007629394531</v>
@@ -4021,10 +4033,10 @@
         <v>53.703701019287109</v>
       </c>
       <c r="AR4" s="1">
-        <v>96.499649047851562</v>
+        <v>96.499649047851563</v>
       </c>
       <c r="AS4" s="1">
-        <v>74.464859008789062</v>
+        <v>74.464859008789063</v>
       </c>
       <c r="AT4" s="1">
         <v>86.644866943359375</v>
@@ -4042,13 +4054,13 @@
         <v>22.927478790283203</v>
       </c>
       <c r="AY4" s="1">
-        <v>72.515640258789062</v>
+        <v>72.515640258789063</v>
       </c>
       <c r="AZ4" s="1">
         <v>64.935066223144531</v>
       </c>
       <c r="BA4" s="1">
-        <v>93.360061645507812</v>
+        <v>93.360061645507813</v>
       </c>
       <c r="BB4" s="1">
         <v>16.213535308837891</v>
@@ -4057,7 +4069,7 @@
         <v>57.977531433105469</v>
       </c>
       <c r="BD4" s="1">
-        <v>68.577774047851562</v>
+        <v>68.577774047851563</v>
       </c>
       <c r="BE4" s="1">
         <v>66.575462341308594</v>
@@ -4082,7 +4094,7 @@
         <v>99.857147216796875</v>
       </c>
       <c r="BM4" s="1">
-        <v>19.349319458007812</v>
+        <v>19.349319458007813</v>
       </c>
       <c r="BN4" s="1">
         <v>53.225811004638672</v>
@@ -4118,7 +4130,7 @@
         <v>99.683082580566406</v>
       </c>
       <c r="BY4" s="1">
-        <v>74.532485961914062</v>
+        <v>74.532485961914063</v>
       </c>
       <c r="BZ4" s="1">
         <v>74.416244506835938</v>
@@ -4184,7 +4196,7 @@
         <v>77.8</v>
       </c>
       <c r="CU4" s="1">
-        <v>42.781509399414062</v>
+        <v>42.781509399414063</v>
       </c>
       <c r="CV4" s="2">
         <v>33.333333333333329</v>
@@ -4281,7 +4293,7 @@
         <v>19.355768203735352</v>
       </c>
       <c r="EB4" s="1">
-        <v>348.07937622070312</v>
+        <v>348.07937622070313</v>
       </c>
       <c r="EC4" s="1">
         <v>1.3692842721939087</v>
@@ -4293,7 +4305,7 @@
         <v>11.06903076171875</v>
       </c>
     </row>
-    <row r="5" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42660</v>
       </c>
@@ -4340,7 +4352,7 @@
         <v>72.285675048828125</v>
       </c>
       <c r="P5" s="1">
-        <v>65.599746704101562</v>
+        <v>65.599746704101563</v>
       </c>
       <c r="Q5" s="1">
         <v>58.169357299804688</v>
@@ -4421,7 +4433,7 @@
         <v>47.710029602050781</v>
       </c>
       <c r="AQ5" s="1">
-        <v>87.373733520507812</v>
+        <v>87.373733520507813</v>
       </c>
       <c r="AR5" s="1">
         <v>34.377243041992188</v>
@@ -4493,7 +4505,7 @@
         <v>17.741935729980469</v>
       </c>
       <c r="BO5" s="1">
-        <v>91.763809204101562</v>
+        <v>91.763809204101563</v>
       </c>
       <c r="BP5" s="1">
         <v>50.884914398193359</v>
@@ -4607,7 +4619,7 @@
         <v>71.876983642578125</v>
       </c>
       <c r="DA5" s="1">
-        <v>90.015762329101562</v>
+        <v>90.015762329101563</v>
       </c>
       <c r="DB5" s="1">
         <v>45.257991790771484</v>
@@ -4649,7 +4661,7 @@
         <v>3.5</v>
       </c>
       <c r="DO5" s="1">
-        <v>26.850234985351562</v>
+        <v>26.850234985351563</v>
       </c>
       <c r="DP5" s="1">
         <v>71.905413627624512</v>
@@ -4700,7 +4712,7 @@
         <v>-2.2248620986938477</v>
       </c>
     </row>
-    <row r="6" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>31540</v>
       </c>
@@ -4789,16 +4801,16 @@
         <v>61.773048400878906</v>
       </c>
       <c r="AD6" s="1">
-        <v>64.401870727539062</v>
+        <v>64.401870727539063</v>
       </c>
       <c r="AE6" s="1">
-        <v>56.106643676757812</v>
+        <v>56.106643676757813</v>
       </c>
       <c r="AF6" s="1">
         <v>93.317726135253906</v>
       </c>
       <c r="AG6" s="1">
-        <v>70.063491821289062</v>
+        <v>70.063491821289063</v>
       </c>
       <c r="AH6" s="1">
         <v>62.925563812255859</v>
@@ -4819,7 +4831,7 @@
         <v>99.923446655273438</v>
       </c>
       <c r="AN6" s="1">
-        <v>91.305862426757812</v>
+        <v>91.305862426757813</v>
       </c>
       <c r="AO6" s="1">
         <v>36.749992370605469</v>
@@ -4828,7 +4840,7 @@
         <v>22.618858337402344</v>
       </c>
       <c r="AQ6" s="1">
-        <v>93.386245727539062</v>
+        <v>93.386245727539063</v>
       </c>
       <c r="AR6" s="1">
         <v>45.848178863525391</v>
@@ -4925,7 +4937,7 @@
         <v>54.936676025390625</v>
       </c>
       <c r="BX6" s="1">
-        <v>66.002151489257812</v>
+        <v>66.002151489257813</v>
       </c>
       <c r="BY6" s="1">
         <v>96.472129821777344</v>
@@ -4994,7 +5006,7 @@
         <v>74.7</v>
       </c>
       <c r="CU6" s="1">
-        <v>37.928543090820312</v>
+        <v>37.928543090820313</v>
       </c>
       <c r="CV6" s="2">
         <v>47.619047619047613</v>
@@ -5091,7 +5103,7 @@
         <v>-9.4259166717529297</v>
       </c>
       <c r="EB6" s="1">
-        <v>227.78494262695312</v>
+        <v>227.78494262695313</v>
       </c>
       <c r="EC6" s="1">
         <v>146.8916015625</v>
@@ -5103,7 +5115,7 @@
         <v>1.561689019203186</v>
       </c>
     </row>
-    <row r="7" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>38900</v>
       </c>
@@ -5165,7 +5177,7 @@
         <v>82.647369384765625</v>
       </c>
       <c r="U7" s="1">
-        <v>68.518264770507812</v>
+        <v>68.518264770507813</v>
       </c>
       <c r="V7" s="1">
         <v>58.452724456787109</v>
@@ -5192,7 +5204,7 @@
         <v>57.576644897460938</v>
       </c>
       <c r="AD7" s="1">
-        <v>71.073806762695312</v>
+        <v>71.073806762695313</v>
       </c>
       <c r="AE7" s="1">
         <v>63.684715270996094</v>
@@ -5240,7 +5252,7 @@
         <v>70.483848571777344</v>
       </c>
       <c r="AT7" s="1">
-        <v>96.936477661132812</v>
+        <v>96.936477661132813</v>
       </c>
       <c r="AU7" s="1">
         <v>34.831382751464844</v>
@@ -5282,7 +5294,7 @@
         <v>62.397933959960938</v>
       </c>
       <c r="BH7" s="1">
-        <v>82.051284790039062</v>
+        <v>82.051284790039063</v>
       </c>
       <c r="BI7" s="1">
         <v>70</v>
@@ -5510,7 +5522,7 @@
         <v>28.373945236206055</v>
       </c>
     </row>
-    <row r="8" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>41740</v>
       </c>
@@ -5530,7 +5542,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="1">
-        <v>74.856826782226562</v>
+        <v>74.856826782226563</v>
       </c>
       <c r="H8" s="1">
         <v>64.976303100585938</v>
@@ -5545,7 +5557,7 @@
         <v>55.940109252929688</v>
       </c>
       <c r="L8" s="1">
-        <v>88.928787231445312</v>
+        <v>88.928787231445313</v>
       </c>
       <c r="M8" s="1">
         <v>37.888042449951172</v>
@@ -5566,10 +5578,10 @@
         <v>45.869056701660156</v>
       </c>
       <c r="S8" s="1">
-        <v>77.533767700195312</v>
+        <v>77.533767700195313</v>
       </c>
       <c r="T8" s="1">
-        <v>92.466629028320312</v>
+        <v>92.466629028320313</v>
       </c>
       <c r="U8" s="1">
         <v>57.145011901855469</v>
@@ -5593,19 +5605,19 @@
         <v>34.445243835449219</v>
       </c>
       <c r="AB8" s="1">
-        <v>60.483657836914062</v>
+        <v>60.483657836914063</v>
       </c>
       <c r="AC8" s="1">
         <v>100</v>
       </c>
       <c r="AD8" s="1">
-        <v>75.621414184570312</v>
+        <v>75.621414184570313</v>
       </c>
       <c r="AE8" s="1">
         <v>70.085128784179688</v>
       </c>
       <c r="AF8" s="1">
-        <v>83.257827758789062</v>
+        <v>83.257827758789063</v>
       </c>
       <c r="AG8" s="1">
         <v>56.409221649169922</v>
@@ -5614,7 +5626,7 @@
         <v>77.83984375</v>
       </c>
       <c r="AI8" s="1">
-        <v>88.451126098632812</v>
+        <v>88.451126098632813</v>
       </c>
       <c r="AJ8" s="1">
         <v>61.213970184326172</v>
@@ -5659,7 +5671,7 @@
         <v>28.600879669189453</v>
       </c>
       <c r="AX8" s="1">
-        <v>40.806716918945312</v>
+        <v>40.806716918945313</v>
       </c>
       <c r="AY8" s="1">
         <v>79.408729553222656</v>
@@ -5683,7 +5695,7 @@
         <v>78.024658203125</v>
       </c>
       <c r="BF8" s="1">
-        <v>49.184829711914062</v>
+        <v>49.184829711914063</v>
       </c>
       <c r="BG8" s="1">
         <v>65.982719421386719</v>
@@ -5719,7 +5731,7 @@
         <v>72.471168518066406</v>
       </c>
       <c r="BR8" s="1">
-        <v>60.130142211914062</v>
+        <v>60.130142211914063</v>
       </c>
       <c r="BS8" s="1">
         <v>100</v>
@@ -5785,7 +5797,7 @@
         <v>13.420452117919922</v>
       </c>
       <c r="CN8" s="1">
-        <v>82.203994750976562</v>
+        <v>82.203994750976563</v>
       </c>
       <c r="CO8" s="1">
         <v>92.3</v>
@@ -5806,7 +5818,7 @@
         <v>75.599999999999994</v>
       </c>
       <c r="CU8" s="1">
-        <v>40.562637329101562</v>
+        <v>40.562637329101563</v>
       </c>
       <c r="CV8" s="2">
         <v>46.153846153846153</v>
@@ -5917,7 +5929,7 @@
         <v>18.380138397216797</v>
       </c>
     </row>
-    <row r="9" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>14460</v>
       </c>
@@ -5937,7 +5949,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="1">
-        <v>81.220474243164062</v>
+        <v>81.220474243164063</v>
       </c>
       <c r="H9" s="1">
         <v>51.802894592285156</v>
@@ -6015,7 +6027,7 @@
         <v>87.410079956054688</v>
       </c>
       <c r="AG9" s="1">
-        <v>47.293960571289062</v>
+        <v>47.293960571289063</v>
       </c>
       <c r="AH9" s="1">
         <v>17.633890151977539</v>
@@ -6036,7 +6048,7 @@
         <v>81.695518493652344</v>
       </c>
       <c r="AN9" s="1">
-        <v>35.558120727539062</v>
+        <v>35.558120727539063</v>
       </c>
       <c r="AO9" s="1">
         <v>30.499992370605469</v>
@@ -6066,7 +6078,7 @@
         <v>7.8640604019165039</v>
       </c>
       <c r="AX9" s="1">
-        <v>40.587173461914062</v>
+        <v>40.587173461914063</v>
       </c>
       <c r="AY9" s="1">
         <v>98.254730224609375</v>
@@ -6324,7 +6336,7 @@
         <v>25.92732048034668</v>
       </c>
     </row>
-    <row r="10" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>12420</v>
       </c>
@@ -6365,10 +6377,10 @@
         <v>18.431253433227539</v>
       </c>
       <c r="N10" s="1">
-        <v>90.716201782226562</v>
+        <v>90.716201782226563</v>
       </c>
       <c r="O10" s="1">
-        <v>63.792312622070312</v>
+        <v>63.792312622070313</v>
       </c>
       <c r="P10" s="1">
         <v>73.461250305175781</v>
@@ -6458,7 +6470,7 @@
         <v>68.839141845703125</v>
       </c>
       <c r="AS10" s="1">
-        <v>73.802932739257812</v>
+        <v>73.802932739257813</v>
       </c>
       <c r="AT10" s="1">
         <v>98.539154052734375</v>
@@ -6479,7 +6491,7 @@
         <v>85.568504333496094</v>
       </c>
       <c r="AZ10" s="1">
-        <v>86.580093383789062</v>
+        <v>86.580093383789063</v>
       </c>
       <c r="BA10" s="1">
         <v>71.180290222167969</v>
@@ -6521,7 +6533,7 @@
         <v>20.376714706420898</v>
       </c>
       <c r="BN10" s="1">
-        <v>56.451614379882812</v>
+        <v>56.451614379882813</v>
       </c>
       <c r="BO10" s="1">
         <v>92.347282409667969</v>
@@ -6542,7 +6554,7 @@
         <v>36.796684265136719</v>
       </c>
       <c r="BU10" s="1">
-        <v>59.725112915039062</v>
+        <v>59.725112915039063</v>
       </c>
       <c r="BV10" s="1">
         <v>98.857261657714844</v>
@@ -6731,7 +6743,7 @@
         <v>14.960004806518555</v>
       </c>
     </row>
-    <row r="11" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>39580</v>
       </c>
@@ -6766,7 +6778,7 @@
         <v>42.468143463134766</v>
       </c>
       <c r="L11" s="1">
-        <v>90.704116821289062</v>
+        <v>90.704116821289063</v>
       </c>
       <c r="M11" s="1">
         <v>27.020225524902344</v>
@@ -6883,10 +6895,10 @@
         <v>69.517433166503906</v>
       </c>
       <c r="AY11" s="1">
-        <v>88.135086059570312</v>
+        <v>88.135086059570313</v>
       </c>
       <c r="AZ11" s="1">
-        <v>86.580093383789062</v>
+        <v>86.580093383789063</v>
       </c>
       <c r="BA11" s="1">
         <v>100</v>
@@ -6925,7 +6937,7 @@
         <v>100</v>
       </c>
       <c r="BM11" s="1">
-        <v>27.226028442382812</v>
+        <v>27.226028442382813</v>
       </c>
       <c r="BN11" s="1">
         <v>62.903224945068359</v>
@@ -7027,7 +7039,7 @@
         <v>72</v>
       </c>
       <c r="CU11" s="1">
-        <v>39.411758422851562</v>
+        <v>39.411758422851563</v>
       </c>
       <c r="CV11" s="2">
         <v>37.5</v>
@@ -7036,7 +7048,7 @@
         <v>2.4175980091094971</v>
       </c>
       <c r="CX11" s="1">
-        <v>70.046157836914062</v>
+        <v>70.046157836914063</v>
       </c>
       <c r="CY11" s="1">
         <v>-6.9193911552429199</v>
@@ -7120,7 +7132,7 @@
         <v>14.40825366973877</v>
       </c>
       <c r="DZ11" s="1">
-        <v>81.213455200195312</v>
+        <v>81.213455200195313</v>
       </c>
       <c r="EA11" s="1">
         <v>11.887519836425781</v>
@@ -7135,10 +7147,10 @@
         <v>2.7098934650421143</v>
       </c>
       <c r="EE11" s="1">
-        <v>34.237258911132812</v>
+        <v>34.237258911132813</v>
       </c>
     </row>
-    <row r="12" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10580</v>
       </c>
@@ -7297,7 +7309,7 @@
         <v>76.546043395996094</v>
       </c>
       <c r="BB12" s="1">
-        <v>77.475296020507812</v>
+        <v>77.475296020507813</v>
       </c>
       <c r="BC12" s="1">
         <v>44.943820953369141</v>
@@ -7330,7 +7342,7 @@
         <v>100</v>
       </c>
       <c r="BM12" s="1">
-        <v>23.287673950195312</v>
+        <v>23.287673950195313</v>
       </c>
       <c r="BN12" s="1">
         <v>70.967742919921875</v>
@@ -7426,7 +7438,7 @@
         <v>73.3</v>
       </c>
       <c r="CU12" s="1">
-        <v>35.148269653320312</v>
+        <v>35.148269653320313</v>
       </c>
       <c r="CV12" s="2"/>
       <c r="CW12" s="1">
@@ -7522,14 +7534,14 @@
         <v>802.142578125</v>
       </c>
       <c r="EC12" s="1">
-        <v>229.95046997070312</v>
+        <v>229.95046997070313</v>
       </c>
       <c r="ED12" s="1">
         <v>2.0106840133666992</v>
       </c>
       <c r="EE12" s="1"/>
     </row>
-    <row r="13" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>46520</v>
       </c>
@@ -7570,7 +7582,7 @@
         <v>61.435165405273438</v>
       </c>
       <c r="N13" s="1">
-        <v>62.411514282226562</v>
+        <v>62.411514282226563</v>
       </c>
       <c r="O13" s="1">
         <v>26.529302597045898</v>
@@ -7594,7 +7606,7 @@
         <v>59.735774993896484</v>
       </c>
       <c r="V13" s="1">
-        <v>72.779373168945312</v>
+        <v>72.779373168945313</v>
       </c>
       <c r="W13" s="1">
         <v>63.636363983154297</v>
@@ -7612,7 +7624,7 @@
         <v>36.126136779785156</v>
       </c>
       <c r="AB13" s="1">
-        <v>33.311294555664062</v>
+        <v>33.311294555664063</v>
       </c>
       <c r="AC13" s="1">
         <v>83.125923156738281</v>
@@ -7682,7 +7694,7 @@
         <v>74.4222412109375</v>
       </c>
       <c r="AZ13" s="1">
-        <v>75.757583618164062</v>
+        <v>75.757583618164063</v>
       </c>
       <c r="BA13" s="1">
         <v>29.561038970947266</v>
@@ -7694,7 +7706,7 @@
         <v>45.842700958251953</v>
       </c>
       <c r="BD13" s="1">
-        <v>72.528335571289062</v>
+        <v>72.528335571289063</v>
       </c>
       <c r="BE13" s="1">
         <v>83.38201904296875</v>
@@ -7724,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>90.322586059570312</v>
+        <v>90.322586059570313</v>
       </c>
       <c r="BO13" s="1">
         <v>91.22662353515625</v>
@@ -7834,7 +7846,7 @@
         <v>7.2514376640319824</v>
       </c>
       <c r="CZ13" s="1">
-        <v>20.106338500976562</v>
+        <v>20.106338500976563</v>
       </c>
       <c r="DA13" s="1">
         <v>100</v>
@@ -7921,14 +7933,14 @@
         <v>496.87338256835938</v>
       </c>
       <c r="EC13" s="1">
-        <v>89.837173461914062</v>
+        <v>89.837173461914063</v>
       </c>
       <c r="ED13" s="1">
         <v>0.67114794254302979</v>
       </c>
       <c r="EE13" s="1"/>
     </row>
-    <row r="14" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>33460</v>
       </c>
@@ -7975,7 +7987,7 @@
         <v>55.904468536376953</v>
       </c>
       <c r="P14" s="1">
-        <v>65.174697875976562</v>
+        <v>65.174697875976563</v>
       </c>
       <c r="Q14" s="1">
         <v>57.085880279541016</v>
@@ -7990,13 +8002,13 @@
         <v>54.260654449462891</v>
       </c>
       <c r="U14" s="1">
-        <v>54.230789184570312</v>
+        <v>54.230789184570313</v>
       </c>
       <c r="V14" s="1">
         <v>74.498565673828125</v>
       </c>
       <c r="W14" s="1">
-        <v>69.930068969726562</v>
+        <v>69.930068969726563</v>
       </c>
       <c r="X14" s="1">
         <v>82.857147216796875</v>
@@ -8029,10 +8041,10 @@
         <v>100</v>
       </c>
       <c r="AH14" s="1">
-        <v>81.173355102539062</v>
+        <v>81.173355102539063</v>
       </c>
       <c r="AI14" s="1">
-        <v>74.268692016601562</v>
+        <v>74.268692016601563</v>
       </c>
       <c r="AJ14" s="1">
         <v>78.843994140625</v>
@@ -8083,7 +8095,7 @@
         <v>90.261680603027344</v>
       </c>
       <c r="AZ14" s="1">
-        <v>88.744583129882812</v>
+        <v>88.744583129882813</v>
       </c>
       <c r="BA14" s="1">
         <v>65.854095458984375</v>
@@ -8149,7 +8161,7 @@
         <v>10.963501930236816</v>
       </c>
       <c r="BV14" s="1">
-        <v>98.236587524414062</v>
+        <v>98.236587524414063</v>
       </c>
       <c r="BW14" s="1">
         <v>13.670960426330566</v>
@@ -8233,13 +8245,13 @@
         <v>0.88639926910400391</v>
       </c>
       <c r="CX14" s="1">
-        <v>58.875564575195312</v>
+        <v>58.875564575195313</v>
       </c>
       <c r="CY14" s="1">
         <v>5.2294116020202637</v>
       </c>
       <c r="CZ14" s="1">
-        <v>36.321731567382812</v>
+        <v>36.321731567382813</v>
       </c>
       <c r="DA14" s="1">
         <v>70.007240295410156</v>
@@ -8284,7 +8296,7 @@
         <v>2.2999999523162842</v>
       </c>
       <c r="DO14" s="1">
-        <v>16.712905883789062</v>
+        <v>16.712905883789063</v>
       </c>
       <c r="DP14" s="1">
         <v>74.955272685736418</v>
@@ -8335,7 +8347,7 @@
         <v>18.297393798828125</v>
       </c>
     </row>
-    <row r="15" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14860</v>
       </c>
@@ -8397,7 +8409,7 @@
         <v>99.937255859375</v>
       </c>
       <c r="U15" s="1">
-        <v>72.489395141601562</v>
+        <v>72.489395141601563</v>
       </c>
       <c r="V15" s="1">
         <v>70.487106323242188</v>
@@ -8508,7 +8520,7 @@
         <v>64.847908020019531</v>
       </c>
       <c r="BF15" s="1">
-        <v>69.285903930664062</v>
+        <v>69.285903930664063</v>
       </c>
       <c r="BG15" s="1">
         <v>19.28205680847168</v>
@@ -8593,7 +8605,7 @@
         <v>6.0074124336242676</v>
       </c>
       <c r="CK15" s="1">
-        <v>239.82339477539062</v>
+        <v>239.82339477539063</v>
       </c>
       <c r="CL15" s="1">
         <v>3.2098183631896973</v>
@@ -8629,7 +8641,7 @@
         <v>52.380952380952387</v>
       </c>
       <c r="CW15" s="1">
-        <v>8.5210037231445312</v>
+        <v>8.5210037231445313</v>
       </c>
       <c r="CX15" s="1">
         <v>39.003665924072266</v>
@@ -8726,7 +8738,7 @@
         <v>21.572359085083008</v>
       </c>
     </row>
-    <row r="16" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>19780</v>
       </c>
@@ -8881,7 +8893,7 @@
         <v>100</v>
       </c>
       <c r="AZ16" s="1">
-        <v>97.402603149414062</v>
+        <v>97.402603149414063</v>
       </c>
       <c r="BA16" s="1">
         <v>45.180553436279297</v>
@@ -9027,7 +9039,7 @@
         <v>4.3641958236694336</v>
       </c>
       <c r="CX16" s="1">
-        <v>64.989089965820312</v>
+        <v>64.989089965820313</v>
       </c>
       <c r="CY16" s="1">
         <v>22.207353591918945</v>
@@ -9102,7 +9114,7 @@
         <v>9.7784356226521414</v>
       </c>
       <c r="DW16" s="1">
-        <v>67.445999145507812</v>
+        <v>67.445999145507813</v>
       </c>
       <c r="DX16" s="1">
         <v>0</v>
@@ -9116,7 +9128,7 @@
         <v>890.840576171875</v>
       </c>
       <c r="EC16" s="1">
-        <v>354.78970336914062</v>
+        <v>354.78970336914063</v>
       </c>
       <c r="ED16" s="1">
         <v>3.6527473926544189</v>
@@ -9125,7 +9137,7 @@
         <v>31.777711868286133</v>
       </c>
     </row>
-    <row r="17" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>37100</v>
       </c>
@@ -9190,7 +9202,7 @@
         <v>42.649635314941406</v>
       </c>
       <c r="V17" s="1">
-        <v>67.621780395507812</v>
+        <v>67.621780395507813</v>
       </c>
       <c r="W17" s="1">
         <v>63.636363983154297</v>
@@ -9232,7 +9244,7 @@
         <v>89.205490112304688</v>
       </c>
       <c r="AJ17" s="1">
-        <v>57.687942504882812</v>
+        <v>57.687942504882813</v>
       </c>
       <c r="AK17" s="1">
         <v>28.441753387451172</v>
@@ -9524,7 +9536,7 @@
         <v>43.265857696533203</v>
       </c>
     </row>
-    <row r="18" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>35620</v>
       </c>
@@ -9616,7 +9628,7 @@
         <v>75.135200500488281</v>
       </c>
       <c r="AE18" s="1">
-        <v>82.010879516601562</v>
+        <v>82.010879516601563</v>
       </c>
       <c r="AF18" s="1">
         <v>77.432044982910156</v>
@@ -9655,13 +9667,13 @@
         <v>27.983537673950195</v>
       </c>
       <c r="AR18" s="1">
-        <v>58.976821899414062</v>
+        <v>58.976821899414063</v>
       </c>
       <c r="AS18" s="1">
-        <v>77.654800415039062</v>
+        <v>77.654800415039063</v>
       </c>
       <c r="AT18" s="1">
-        <v>93.548171997070312</v>
+        <v>93.548171997070313</v>
       </c>
       <c r="AU18" s="1">
         <v>48.142494201660156</v>
@@ -9730,10 +9742,10 @@
         <v>48.717327117919922</v>
       </c>
       <c r="BQ18" s="1">
-        <v>64.221572875976562</v>
+        <v>64.221572875976563</v>
       </c>
       <c r="BR18" s="1">
-        <v>83.796218872070312</v>
+        <v>83.796218872070313</v>
       </c>
       <c r="BS18" s="1">
         <v>100</v>
@@ -9922,7 +9934,7 @@
         <v>306.87704467773438</v>
       </c>
       <c r="EC18" s="1">
-        <v>71.955093383789062</v>
+        <v>71.955093383789063</v>
       </c>
       <c r="ED18" s="1">
         <v>2.4263327121734619</v>
@@ -9931,7 +9943,7 @@
         <v>15.635527610778809</v>
       </c>
     </row>
-    <row r="19" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>49340</v>
       </c>
@@ -9954,7 +9966,7 @@
         <v>79.387031555175781</v>
       </c>
       <c r="H19" s="1">
-        <v>41.945449829101562</v>
+        <v>41.945449829101563</v>
       </c>
       <c r="I19" s="1">
         <v>53.754833221435547</v>
@@ -10083,7 +10095,7 @@
         <v>32.776020050048828</v>
       </c>
       <c r="AY19" s="1">
-        <v>89.601699829101562</v>
+        <v>89.601699829101563</v>
       </c>
       <c r="AZ19" s="1">
         <v>64.935066223144531</v>
@@ -10318,7 +10330,7 @@
         <v>154.31550598144531</v>
       </c>
       <c r="EB19" s="1">
-        <v>316.89187622070312</v>
+        <v>316.89187622070313</v>
       </c>
       <c r="EC19" s="1">
         <v>41.409313201904297</v>
@@ -10330,7 +10342,7 @@
         <v>30.298311233520508</v>
       </c>
     </row>
-    <row r="20" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>31080</v>
       </c>
@@ -10386,7 +10398,7 @@
         <v>35.048076629638672</v>
       </c>
       <c r="S20" s="1">
-        <v>78.285903930664062</v>
+        <v>78.285903930664063</v>
       </c>
       <c r="T20" s="1">
         <v>74.1646728515625</v>
@@ -10461,7 +10473,7 @@
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>99.237991333007812</v>
+        <v>99.237991333007813</v>
       </c>
       <c r="AS20" s="1">
         <v>70.584640502929688</v>
@@ -10530,13 +10542,13 @@
         <v>0</v>
       </c>
       <c r="BO20" s="1">
-        <v>71.275955200195312</v>
+        <v>71.275955200195313</v>
       </c>
       <c r="BP20" s="1">
         <v>33.868274688720703</v>
       </c>
       <c r="BQ20" s="1">
-        <v>68.060806274414062</v>
+        <v>68.060806274414063</v>
       </c>
       <c r="BR20" s="1">
         <v>66.796905517578125</v>
@@ -10626,7 +10638,7 @@
         <v>78.8</v>
       </c>
       <c r="CU20" s="1">
-        <v>41.702468872070312</v>
+        <v>41.702468872070313</v>
       </c>
       <c r="CV20" s="2">
         <v>11.111111111111111</v>
@@ -10737,7 +10749,7 @@
         <v>16.050968170166016</v>
       </c>
     </row>
-    <row r="21" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>39300</v>
       </c>
@@ -10829,7 +10841,7 @@
         <v>56.370044708251953</v>
       </c>
       <c r="AE21" s="1">
-        <v>69.351394653320312</v>
+        <v>69.351394653320313</v>
       </c>
       <c r="AF21" s="1">
         <v>59.781848907470703</v>
@@ -10907,7 +10919,7 @@
         <v>41.227680206298828</v>
       </c>
       <c r="BE21" s="1">
-        <v>69.396499633789062</v>
+        <v>69.396499633789063</v>
       </c>
       <c r="BF21" s="1">
         <v>54.408939361572266</v>
@@ -10957,13 +10969,13 @@
         <v>99.932060241699219</v>
       </c>
       <c r="BW21" s="1">
-        <v>58.613235473632812</v>
+        <v>58.613235473632813</v>
       </c>
       <c r="BX21" s="1">
         <v>94.7823486328125</v>
       </c>
       <c r="BY21" s="1">
-        <v>96.729202270507812</v>
+        <v>96.729202270507813</v>
       </c>
       <c r="BZ21" s="1">
         <v>28.944740295410156</v>
@@ -11041,10 +11053,10 @@
         <v>59.151165008544922</v>
       </c>
       <c r="CY21" s="1">
-        <v>9.0798110961914062</v>
+        <v>9.0798110961914063</v>
       </c>
       <c r="CZ21" s="1">
-        <v>30.163467407226562</v>
+        <v>30.163467407226563</v>
       </c>
       <c r="DA21" s="1">
         <v>100</v>
@@ -11136,7 +11148,7 @@
         <v>30.742668151855469</v>
       </c>
     </row>
-    <row r="22" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>24340</v>
       </c>
@@ -11168,7 +11180,7 @@
         <v>41.883827209472656</v>
       </c>
       <c r="K22" s="1">
-        <v>40.619155883789062</v>
+        <v>40.619155883789063</v>
       </c>
       <c r="L22" s="1">
         <v>89.954032897949219</v>
@@ -11291,7 +11303,7 @@
         <v>84.68853759765625</v>
       </c>
       <c r="AZ22" s="1">
-        <v>86.580093383789062</v>
+        <v>86.580093383789063</v>
       </c>
       <c r="BA22" s="1">
         <v>39.414817810058594</v>
@@ -11309,7 +11321,7 @@
         <v>40.939720153808594</v>
       </c>
       <c r="BF22" s="1">
-        <v>61.750686645507812</v>
+        <v>61.750686645507813</v>
       </c>
       <c r="BG22" s="1">
         <v>29.44267463684082</v>
@@ -11365,7 +11377,7 @@
         <v>92.024169921875</v>
       </c>
       <c r="BZ22" s="1">
-        <v>63.056045532226562</v>
+        <v>63.056045532226563</v>
       </c>
       <c r="CA22" s="1">
         <v>10</v>
@@ -11526,7 +11538,7 @@
         <v>754.43414306640625</v>
       </c>
       <c r="EC22" s="1">
-        <v>154.11709594726562</v>
+        <v>154.11709594726563</v>
       </c>
       <c r="ED22" s="1">
         <v>2.1793999671936035</v>
@@ -11535,7 +11547,7 @@
         <v>15.98411750793457</v>
       </c>
     </row>
-    <row r="23" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19740</v>
       </c>
@@ -11549,7 +11561,7 @@
         <v>483</v>
       </c>
       <c r="E23" s="1">
-        <v>54.451309204101562</v>
+        <v>54.451309204101563</v>
       </c>
       <c r="F23" s="1">
         <v>22</v>
@@ -11603,7 +11615,7 @@
         <v>71.63323974609375</v>
       </c>
       <c r="W23" s="1">
-        <v>65.734268188476562</v>
+        <v>65.734268188476563</v>
       </c>
       <c r="X23" s="1">
         <v>72.857139587402344</v>
@@ -11639,7 +11651,7 @@
         <v>68.152397155761719</v>
       </c>
       <c r="AI23" s="1">
-        <v>66.921768188476562</v>
+        <v>66.921768188476563</v>
       </c>
       <c r="AJ23" s="1">
         <v>63.732547760009766</v>
@@ -11663,10 +11675,10 @@
         <v>41.988937377929688</v>
       </c>
       <c r="AQ23" s="1">
-        <v>46.581192016601562</v>
+        <v>46.581192016601563</v>
       </c>
       <c r="AR23" s="1">
-        <v>94.921585083007812</v>
+        <v>94.921585083007813</v>
       </c>
       <c r="AS23" s="1">
         <v>33.699779510498047</v>
@@ -11735,7 +11747,7 @@
         <v>46.774196624755859</v>
       </c>
       <c r="BO23" s="1">
-        <v>95.598464965820312</v>
+        <v>95.598464965820313</v>
       </c>
       <c r="BP23" s="1">
         <v>60.472072601318359</v>
@@ -11756,7 +11768,7 @@
         <v>28.501331329345703</v>
       </c>
       <c r="BV23" s="1">
-        <v>98.880569458007812</v>
+        <v>98.880569458007813</v>
       </c>
       <c r="BW23" s="1">
         <v>0</v>
@@ -11939,10 +11951,10 @@
         <v>3.3853044509887695</v>
       </c>
       <c r="EE23" s="1">
-        <v>23.824966430664062</v>
+        <v>23.824966430664063</v>
       </c>
     </row>
-    <row r="24" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40900</v>
       </c>
@@ -11968,7 +11980,7 @@
         <v>49.385219573974609</v>
       </c>
       <c r="I24" s="1">
-        <v>62.284133911132812</v>
+        <v>62.284133911132813</v>
       </c>
       <c r="J24" s="1">
         <v>39.548702239990234</v>
@@ -11983,7 +11995,7 @@
         <v>33.296363830566406</v>
       </c>
       <c r="N24" s="1">
-        <v>48.134414672851562</v>
+        <v>48.134414672851563</v>
       </c>
       <c r="O24" s="1">
         <v>39.498748779296875</v>
@@ -12082,7 +12094,7 @@
         <v>99.58416748046875</v>
       </c>
       <c r="AU24" s="1">
-        <v>33.552566528320312</v>
+        <v>33.552566528320313</v>
       </c>
       <c r="AV24" s="1">
         <v>37.735645294189453</v>
@@ -12112,7 +12124,7 @@
         <v>51.053451538085938</v>
       </c>
       <c r="BE24" s="1">
-        <v>61.663162231445312</v>
+        <v>61.663162231445313</v>
       </c>
       <c r="BF24" s="1">
         <v>43.313468933105469</v>
@@ -12151,7 +12163,7 @@
         <v>72.525337219238281</v>
       </c>
       <c r="BR24" s="1">
-        <v>72.074966430664062</v>
+        <v>72.074966430664063</v>
       </c>
       <c r="BS24" s="1">
         <v>100</v>
@@ -12340,7 +12352,7 @@
         <v>913.359130859375</v>
       </c>
       <c r="EC24" s="1">
-        <v>146.83718872070312</v>
+        <v>146.83718872070313</v>
       </c>
       <c r="ED24" s="1">
         <v>3.9695484638214111</v>
@@ -12349,7 +12361,7 @@
         <v>22.099588394165039</v>
       </c>
     </row>
-    <row r="25" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45940</v>
       </c>
@@ -12372,7 +12384,7 @@
         <v>84.622734069824219</v>
       </c>
       <c r="H25" s="1">
-        <v>43.092910766601562</v>
+        <v>43.092910766601563</v>
       </c>
       <c r="I25" s="1">
         <v>58.030948638916016</v>
@@ -12502,7 +12514,7 @@
         <v>62.521095275878906</v>
       </c>
       <c r="BB25" s="1">
-        <v>97.014297485351562</v>
+        <v>97.014297485351563</v>
       </c>
       <c r="BC25" s="1">
         <v>37.752815246582031</v>
@@ -12560,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>55.506729125976562</v>
+        <v>55.506729125976563</v>
       </c>
       <c r="BY25" s="1">
         <v>68.037361145019531</v>
@@ -12593,7 +12605,7 @@
         <v>6.9388227462768555</v>
       </c>
       <c r="CK25" s="1">
-        <v>322.08230590820312</v>
+        <v>322.08230590820313</v>
       </c>
       <c r="CL25" s="1">
         <v>3.7492132186889648</v>
@@ -12707,7 +12719,7 @@
       <c r="DY25" s="1"/>
       <c r="DZ25" s="1"/>
       <c r="EA25" s="1">
-        <v>-21.110000610351562</v>
+        <v>-21.110000610351563</v>
       </c>
       <c r="EB25" s="1">
         <v>756.3988037109375</v>
@@ -12720,7 +12732,7 @@
       </c>
       <c r="EE25" s="1"/>
     </row>
-    <row r="26" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>41620</v>
       </c>
@@ -12764,7 +12776,7 @@
         <v>68.889892578125</v>
       </c>
       <c r="O26" s="1">
-        <v>44.577896118164062</v>
+        <v>44.577896118164063</v>
       </c>
       <c r="P26" s="1">
         <v>65.075904846191406</v>
@@ -12836,7 +12848,7 @@
         <v>49.295772552490234</v>
       </c>
       <c r="AM26" s="1">
-        <v>39.766677856445312</v>
+        <v>39.766677856445313</v>
       </c>
       <c r="AN26" s="1">
         <v>55.464778900146484</v>
@@ -12875,7 +12887,7 @@
         <v>75.082221984863281</v>
       </c>
       <c r="AZ26" s="1">
-        <v>86.580093383789062</v>
+        <v>86.580093383789063</v>
       </c>
       <c r="BA26" s="1">
         <v>52.017677307128906</v>
@@ -12973,7 +12985,7 @@
         <v>10.183668613433838</v>
       </c>
       <c r="CH26" s="1">
-        <v>25.354263305664062</v>
+        <v>25.354263305664063</v>
       </c>
       <c r="CI26" s="1">
         <v>5.2172203063964844</v>
@@ -13012,7 +13024,7 @@
         <v>70.8</v>
       </c>
       <c r="CU26" s="1">
-        <v>36.516128540039062</v>
+        <v>36.516128540039063</v>
       </c>
       <c r="CV26" s="2">
         <v>37.5</v>
@@ -13021,7 +13033,7 @@
         <v>25.038881301879883</v>
       </c>
       <c r="CX26" s="1">
-        <v>129.21878051757812</v>
+        <v>129.21878051757813</v>
       </c>
       <c r="CY26" s="1">
         <v>3.6253187656402588</v>
@@ -13119,7 +13131,7 @@
         <v>34.554931640625</v>
       </c>
     </row>
-    <row r="27" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>31700</v>
       </c>
@@ -13228,10 +13240,10 @@
         <v>16.641452789306641</v>
       </c>
       <c r="AL27" s="1">
-        <v>63.631790161132812</v>
+        <v>63.631790161132813</v>
       </c>
       <c r="AM27" s="1">
-        <v>77.294998168945312</v>
+        <v>77.294998168945313</v>
       </c>
       <c r="AN27" s="1">
         <v>77.125968933105469</v>
@@ -13314,7 +13326,7 @@
         <v>99.88128662109375</v>
       </c>
       <c r="BP27" s="1">
-        <v>94.565200805664062</v>
+        <v>94.565200805664063</v>
       </c>
       <c r="BQ27" s="1"/>
       <c r="BR27" s="1">
@@ -13498,7 +13510,7 @@
         <v>19.971128463745117</v>
       </c>
     </row>
-    <row r="28" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>16980</v>
       </c>
@@ -13524,7 +13536,7 @@
         <v>46.498867034912109</v>
       </c>
       <c r="I28" s="1">
-        <v>61.287857055664062</v>
+        <v>61.287857055664063</v>
       </c>
       <c r="J28" s="1">
         <v>52.262252807617188</v>
@@ -13554,7 +13566,7 @@
         <v>41.673671722412109</v>
       </c>
       <c r="S28" s="1">
-        <v>66.257217407226562</v>
+        <v>66.257217407226563</v>
       </c>
       <c r="T28" s="1">
         <v>58.835918426513672</v>
@@ -13674,7 +13686,7 @@
         <v>67.934303283691406</v>
       </c>
       <c r="BG28" s="1">
-        <v>9.5665359497070312</v>
+        <v>9.5665359497070313</v>
       </c>
       <c r="BH28" s="1">
         <v>100</v>
@@ -13686,7 +13698,7 @@
         <v>36.714397430419922</v>
       </c>
       <c r="BK28" s="1">
-        <v>65.662857055664062</v>
+        <v>65.662857055664063</v>
       </c>
       <c r="BL28" s="1">
         <v>99.785713195800781</v>
@@ -13788,7 +13800,7 @@
         <v>91.412803247570992</v>
       </c>
       <c r="CS28" s="1">
-        <v>43.970108032226562</v>
+        <v>43.970108032226563</v>
       </c>
       <c r="CT28" s="1">
         <v>66.599999999999994</v>
@@ -13905,7 +13917,7 @@
         <v>11.185663223266602</v>
       </c>
     </row>
-    <row r="29" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>39340</v>
       </c>
@@ -13955,10 +13967,10 @@
         <v>59.901458740234375</v>
       </c>
       <c r="Q29" s="1">
-        <v>55.009353637695312</v>
+        <v>55.009353637695313</v>
       </c>
       <c r="R29" s="1">
-        <v>51.034133911132812</v>
+        <v>51.034133911132813</v>
       </c>
       <c r="S29" s="1">
         <v>10.482514381408691</v>
@@ -14021,7 +14033,7 @@
         <v>60.362178802490234</v>
       </c>
       <c r="AM29" s="1">
-        <v>95.806289672851562</v>
+        <v>95.806289672851563</v>
       </c>
       <c r="AN29" s="1">
         <v>94.61932373046875</v>
@@ -14058,7 +14070,7 @@
         <v>95.101509094238281</v>
       </c>
       <c r="AZ29" s="1">
-        <v>86.580093383789062</v>
+        <v>86.580093383789063</v>
       </c>
       <c r="BA29" s="1">
         <v>54.106212615966797</v>
@@ -14242,7 +14254,7 @@
         <v>0.87733995914459229</v>
       </c>
       <c r="DL29" s="1">
-        <v>70.414749145507812</v>
+        <v>70.414749145507813</v>
       </c>
       <c r="DM29" s="1">
         <v>48</v>
@@ -14296,7 +14308,7 @@
       </c>
       <c r="EE29" s="1"/>
     </row>
-    <row r="30" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>35300</v>
       </c>
@@ -14331,7 +14343,7 @@
         <v>47.936664581298828</v>
       </c>
       <c r="L30" s="1">
-        <v>68.993667602539062</v>
+        <v>68.993667602539063</v>
       </c>
       <c r="M30" s="1">
         <v>16.828458786010742</v>
@@ -14380,7 +14392,7 @@
         <v>17.104955673217773</v>
       </c>
       <c r="AC30" s="1">
-        <v>55.065200805664062</v>
+        <v>55.065200805664063</v>
       </c>
       <c r="AD30" s="1">
         <v>55.870754241943359</v>
@@ -14452,7 +14464,7 @@
         <v>10.822510719299316</v>
       </c>
       <c r="BA30" s="1">
-        <v>59.943496704101562</v>
+        <v>59.943496704101563</v>
       </c>
       <c r="BB30" s="1">
         <v>33.497047424316406</v>
@@ -14479,7 +14491,7 @@
         <v>82</v>
       </c>
       <c r="BJ30" s="1">
-        <v>16.415664672851562</v>
+        <v>16.415664672851563</v>
       </c>
       <c r="BK30" s="1">
         <v>36.333965301513672</v>
@@ -14514,7 +14526,7 @@
       <c r="BW30" s="1"/>
       <c r="BX30" s="1"/>
       <c r="BY30" s="1">
-        <v>89.231826782226562</v>
+        <v>89.231826782226563</v>
       </c>
       <c r="BZ30" s="1">
         <v>100</v>
@@ -14544,7 +14556,7 @@
         <v>27.100000381469727</v>
       </c>
       <c r="CI30" s="1">
-        <v>6.0716323852539062</v>
+        <v>6.0716323852539063</v>
       </c>
       <c r="CJ30" s="1">
         <v>8.2318992614746094</v>
@@ -14592,7 +14604,7 @@
         <v>31.929191589355469</v>
       </c>
       <c r="CY30" s="1">
-        <v>-17.028152465820312</v>
+        <v>-17.028152465820313</v>
       </c>
       <c r="CZ30" s="1">
         <v>36.360912322998047</v>
@@ -14681,7 +14693,7 @@
         <v>-8.7074451446533203</v>
       </c>
     </row>
-    <row r="31" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>20500</v>
       </c>
@@ -14812,7 +14824,7 @@
         <v>40.476192474365234</v>
       </c>
       <c r="AR31" s="1">
-        <v>38.637710571289062</v>
+        <v>38.637710571289063</v>
       </c>
       <c r="AS31" s="1">
         <v>79.551628112792969</v>
@@ -14852,7 +14864,7 @@
         <v>0</v>
       </c>
       <c r="BF31" s="1">
-        <v>82.555191040039062</v>
+        <v>82.555191040039063</v>
       </c>
       <c r="BG31" s="1">
         <v>100</v>
@@ -14898,7 +14910,7 @@
         <v>49.321582794189453</v>
       </c>
       <c r="BV31" s="1">
-        <v>99.368057250976562</v>
+        <v>99.368057250976563</v>
       </c>
       <c r="BW31" s="1">
         <v>0</v>
@@ -14982,7 +14994,7 @@
         <v>48.559818267822266</v>
       </c>
       <c r="CX31" s="1">
-        <v>70.246719360351562</v>
+        <v>70.246719360351563</v>
       </c>
       <c r="CY31" s="1">
         <v>-11.140995025634766</v>
@@ -15080,7 +15092,7 @@
         <v>4.593785285949707</v>
       </c>
     </row>
-    <row r="32" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44140</v>
       </c>
@@ -15115,7 +15127,7 @@
         <v>13.394107818603516</v>
       </c>
       <c r="L32" s="1">
-        <v>66.482559204101562</v>
+        <v>66.482559204101563</v>
       </c>
       <c r="M32" s="1">
         <v>31.038551330566406</v>
@@ -15196,7 +15208,7 @@
         <v>42.253520965576172</v>
       </c>
       <c r="AM32" s="1">
-        <v>73.459976196289062</v>
+        <v>73.459976196289063</v>
       </c>
       <c r="AN32" s="1">
         <v>2.9518783092498779</v>
@@ -15220,7 +15232,7 @@
         <v>100</v>
       </c>
       <c r="AU32" s="1">
-        <v>32.585586547851562</v>
+        <v>32.585586547851563</v>
       </c>
       <c r="AV32" s="1">
         <v>52.666004180908203</v>
@@ -15250,7 +15262,7 @@
         <v>33.529155731201172</v>
       </c>
       <c r="BE32" s="1">
-        <v>48.912307739257812</v>
+        <v>48.912307739257813</v>
       </c>
       <c r="BF32" s="1">
         <v>0.80887556076049805</v>
@@ -15306,10 +15318,10 @@
         <v>83.204635620117188</v>
       </c>
       <c r="BY32" s="1">
-        <v>83.051101684570312</v>
+        <v>83.051101684570313</v>
       </c>
       <c r="BZ32" s="1">
-        <v>63.393203735351562</v>
+        <v>63.393203735351563</v>
       </c>
       <c r="CA32" s="1">
         <v>15.5</v>
@@ -15384,7 +15396,7 @@
         <v>59.109302520751953</v>
       </c>
       <c r="CY32" s="1">
-        <v>-21.110000610351562</v>
+        <v>-21.110000610351563</v>
       </c>
       <c r="CZ32" s="1">
         <v>34.358917236328125</v>
@@ -15456,7 +15468,7 @@
         <v>10.96836845158399</v>
       </c>
       <c r="DW32" s="1">
-        <v>74.255996704101562</v>
+        <v>74.255996704101563</v>
       </c>
       <c r="DX32" s="1">
         <v>1</v>
@@ -15479,7 +15491,7 @@
         <v>15.83824348449707</v>
       </c>
     </row>
-    <row r="33" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>10420</v>
       </c>
@@ -15508,10 +15520,10 @@
         <v>38.834026336669922</v>
       </c>
       <c r="J33" s="1">
-        <v>47.932327270507812</v>
+        <v>47.932327270507813</v>
       </c>
       <c r="K33" s="1">
-        <v>31.718765258789062</v>
+        <v>31.718765258789063</v>
       </c>
       <c r="L33" s="1">
         <v>74.07666015625</v>
@@ -15532,7 +15544,7 @@
         <v>49.732612609863281</v>
       </c>
       <c r="R33" s="1">
-        <v>77.916458129882812</v>
+        <v>77.916458129882813</v>
       </c>
       <c r="S33" s="1">
         <v>35.328159332275391</v>
@@ -15616,7 +15628,7 @@
         <v>95.101509094238281</v>
       </c>
       <c r="AT33" s="1">
-        <v>98.649795532226562</v>
+        <v>98.649795532226563</v>
       </c>
       <c r="AU33" s="1">
         <v>48.015953063964844</v>
@@ -15637,7 +15649,7 @@
         <v>56.277061462402344</v>
       </c>
       <c r="BA33" s="1">
-        <v>35.222183227539062</v>
+        <v>35.222183227539063</v>
       </c>
       <c r="BB33" s="1">
         <v>37.272186279296875</v>
@@ -15652,10 +15664,10 @@
         <v>25.652536392211914</v>
       </c>
       <c r="BF33" s="1">
-        <v>36.488113403320312</v>
+        <v>36.488113403320313</v>
       </c>
       <c r="BG33" s="1">
-        <v>39.478408813476562</v>
+        <v>39.478408813476563</v>
       </c>
       <c r="BH33" s="1">
         <v>100</v>
@@ -15682,7 +15694,7 @@
         <v>95.581123352050781</v>
       </c>
       <c r="BP33" s="1">
-        <v>75.265029907226562</v>
+        <v>75.265029907226563</v>
       </c>
       <c r="BQ33" s="1">
         <v>62.894821166992188</v>
@@ -15705,10 +15717,10 @@
         <v>37.890445709228516</v>
       </c>
       <c r="BY33" s="1">
-        <v>63.825820922851562</v>
+        <v>63.825820922851563</v>
       </c>
       <c r="BZ33" s="1">
-        <v>90.383010864257812</v>
+        <v>90.383010864257813</v>
       </c>
       <c r="CA33" s="1">
         <v>12.5</v>
@@ -15762,7 +15774,7 @@
         <v>34.799999999999997</v>
       </c>
       <c r="CR33" s="1">
-        <v>90.486892700195312</v>
+        <v>90.486892700195313</v>
       </c>
       <c r="CS33" s="1">
         <v>37.685997009277344</v>
@@ -15878,7 +15890,7 @@
         <v>4.1608715057373047</v>
       </c>
     </row>
-    <row r="34" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>38300</v>
       </c>
@@ -15937,7 +15949,7 @@
         <v>43.775745391845703</v>
       </c>
       <c r="T34" s="1">
-        <v>71.057083129882812</v>
+        <v>71.057083129882813</v>
       </c>
       <c r="U34" s="1">
         <v>48.302104949951172</v>
@@ -15982,7 +15994,7 @@
         <v>0</v>
       </c>
       <c r="AI34" s="1">
-        <v>20.502029418945312</v>
+        <v>20.502029418945313</v>
       </c>
       <c r="AJ34" s="1">
         <v>82.369979858398438</v>
@@ -16048,7 +16060,7 @@
         <v>37.68231201171875</v>
       </c>
       <c r="BE34" s="1">
-        <v>83.044631958007812</v>
+        <v>83.044631958007813</v>
       </c>
       <c r="BF34" s="1">
         <v>4.5393357276916504</v>
@@ -16069,7 +16081,7 @@
         <v>34.390357971191406</v>
       </c>
       <c r="BL34" s="1">
-        <v>97.571426391601562</v>
+        <v>97.571426391601563</v>
       </c>
       <c r="BM34" s="1">
         <v>25.342470169067383</v>
@@ -16138,7 +16150,7 @@
         <v>30.033700227737427</v>
       </c>
       <c r="CI34" s="1">
-        <v>6.5379409790039062</v>
+        <v>6.5379409790039063</v>
       </c>
       <c r="CJ34" s="1">
         <v>7.0324530601501465</v>
@@ -16168,7 +16180,7 @@
         <v>89.902804374694824</v>
       </c>
       <c r="CS34" s="1">
-        <v>22.828933715820312</v>
+        <v>22.828933715820313</v>
       </c>
       <c r="CT34" s="1">
         <v>66.599999999999994</v>
@@ -16180,7 +16192,7 @@
         <v>40</v>
       </c>
       <c r="CW34" s="1">
-        <v>62.468460083007812</v>
+        <v>62.468460083007813</v>
       </c>
       <c r="CX34" s="1">
         <v>58.332008361816406</v>
@@ -16258,7 +16270,7 @@
         <v>25.771462301060041</v>
       </c>
       <c r="DW34" s="1">
-        <v>67.748001098632812</v>
+        <v>67.748001098632813</v>
       </c>
       <c r="DX34" s="1">
         <v>1</v>
@@ -16285,7 +16297,7 @@
         <v>15.522083282470703</v>
       </c>
     </row>
-    <row r="35" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45060</v>
       </c>
@@ -16383,7 +16395,7 @@
         <v>54.167320251464844</v>
       </c>
       <c r="AG35" s="1">
-        <v>42.615432739257812</v>
+        <v>42.615432739257813</v>
       </c>
       <c r="AH35" s="1">
         <v>44.312873840332031</v>
@@ -16398,13 +16410,13 @@
         <v>12.102874755859375</v>
       </c>
       <c r="AL35" s="1">
-        <v>53.571426391601562</v>
+        <v>53.571426391601563</v>
       </c>
       <c r="AM35" s="1">
         <v>52.696247100830078</v>
       </c>
       <c r="AN35" s="1">
-        <v>39.306961059570312</v>
+        <v>39.306961059570313</v>
       </c>
       <c r="AO35" s="1">
         <v>42.749996185302734</v>
@@ -16452,7 +16464,7 @@
         <v>31.910106658935547</v>
       </c>
       <c r="BD35" s="1">
-        <v>56.928665161132812</v>
+        <v>56.928665161132813</v>
       </c>
       <c r="BE35" s="1">
         <v>49.876575469970703</v>
@@ -16684,7 +16696,7 @@
         <v>17.171779632568359</v>
       </c>
     </row>
-    <row r="36" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>38060</v>
       </c>
@@ -16740,7 +16752,7 @@
         <v>52.653778076171875</v>
       </c>
       <c r="S36" s="1">
-        <v>71.718460083007812</v>
+        <v>71.718460083007813</v>
       </c>
       <c r="T36" s="1">
         <v>83.173728942871094</v>
@@ -16857,7 +16869,7 @@
         <v>40.532962799072266</v>
       </c>
       <c r="BF36" s="1">
-        <v>46.949844360351562</v>
+        <v>46.949844360351563</v>
       </c>
       <c r="BG36" s="1">
         <v>80.553695678710938</v>
@@ -16890,7 +16902,7 @@
         <v>33.813129425048828</v>
       </c>
       <c r="BQ36" s="1">
-        <v>75.790420532226562</v>
+        <v>75.790420532226563</v>
       </c>
       <c r="BR36" s="1">
         <v>39.364971160888672</v>
@@ -16974,7 +16986,7 @@
         <v>79.861127376556396</v>
       </c>
       <c r="CS36" s="1">
-        <v>34.641128540039062</v>
+        <v>34.641128540039063</v>
       </c>
       <c r="CT36" s="1">
         <v>78.8</v>
@@ -17073,7 +17085,7 @@
         <v>15.02888011932373</v>
       </c>
       <c r="DZ36" s="1">
-        <v>88.541030883789062</v>
+        <v>88.541030883789063</v>
       </c>
       <c r="EA36" s="1">
         <v>-4.3728694915771484</v>
@@ -17091,7 +17103,7 @@
         <v>21.698802947998047</v>
       </c>
     </row>
-    <row r="37" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>47260</v>
       </c>
@@ -17147,7 +17159,7 @@
         <v>69.130104064941406</v>
       </c>
       <c r="S37" s="1">
-        <v>71.798477172851562</v>
+        <v>71.798477172851563</v>
       </c>
       <c r="T37" s="1">
         <v>83.866302490234375</v>
@@ -17300,7 +17312,7 @@
         <v>65.009437561035156</v>
       </c>
       <c r="BR37" s="1">
-        <v>50.386001586914062</v>
+        <v>50.386001586914063</v>
       </c>
       <c r="BS37" s="1">
         <v>100</v>
@@ -17396,13 +17408,13 @@
         <v>0.9245760440826416</v>
       </c>
       <c r="CX37" s="1">
-        <v>79.995071411132812</v>
+        <v>79.995071411132813</v>
       </c>
       <c r="CY37" s="1">
         <v>-19.019948959350586</v>
       </c>
       <c r="CZ37" s="1">
-        <v>44.359024047851562</v>
+        <v>44.359024047851563</v>
       </c>
       <c r="DA37" s="1">
         <v>15.093372344970703</v>
@@ -17498,7 +17510,7 @@
         <v>36.859848022460938</v>
       </c>
     </row>
-    <row r="38" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>12580</v>
       </c>
@@ -17569,7 +17581,7 @@
         <v>48.251747131347656</v>
       </c>
       <c r="X38" s="1">
-        <v>78.571426391601562</v>
+        <v>78.571426391601563</v>
       </c>
       <c r="Y38" s="1">
         <v>100</v>
@@ -17635,7 +17647,7 @@
         <v>82.389572143554688</v>
       </c>
       <c r="AT38" s="1">
-        <v>99.579849243164062</v>
+        <v>99.579849243164063</v>
       </c>
       <c r="AU38" s="1">
         <v>35.662761688232422</v>
@@ -17674,7 +17686,7 @@
         <v>20.867855072021484</v>
       </c>
       <c r="BG38" s="1">
-        <v>47.185256958007812</v>
+        <v>47.185256958007813</v>
       </c>
       <c r="BH38" s="1">
         <v>85.897430419921875</v>
@@ -17905,7 +17917,7 @@
         <v>8.7621192932128906</v>
       </c>
     </row>
-    <row r="39" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>14260</v>
       </c>
@@ -17919,7 +17931,7 @@
         <v>499</v>
       </c>
       <c r="E39" s="1">
-        <v>50.120437622070312</v>
+        <v>50.120437622070313</v>
       </c>
       <c r="F39" s="1">
         <v>38</v>
@@ -17970,7 +17982,7 @@
         <v>47.136825561523438</v>
       </c>
       <c r="V39" s="1">
-        <v>46.991409301757812</v>
+        <v>46.991409301757813</v>
       </c>
       <c r="W39" s="1">
         <v>57.342658996582031</v>
@@ -17991,7 +18003,7 @@
         <v>46.198085784912109</v>
       </c>
       <c r="AC39" s="1">
-        <v>47.212844848632812</v>
+        <v>47.212844848632813</v>
       </c>
       <c r="AD39" s="1">
         <v>69.982994079589844</v>
@@ -18000,10 +18012,10 @@
         <v>41.533588409423828</v>
       </c>
       <c r="AF39" s="1">
-        <v>74.498733520507812</v>
+        <v>74.498733520507813</v>
       </c>
       <c r="AG39" s="1">
-        <v>48.216995239257812</v>
+        <v>48.216995239257813</v>
       </c>
       <c r="AH39" s="1">
         <v>83.401611328125</v>
@@ -18012,7 +18024,7 @@
         <v>57.901538848876953</v>
       </c>
       <c r="AJ39" s="1">
-        <v>47.109939575195312</v>
+        <v>47.109939575195313</v>
       </c>
       <c r="AK39" s="1">
         <v>8.3207263946533203</v>
@@ -18049,13 +18061,13 @@
         <v>95.61572265625</v>
       </c>
       <c r="AW39" s="1">
-        <v>67.899307250976562</v>
+        <v>67.899307250976563</v>
       </c>
       <c r="AX39" s="1">
         <v>60.360919952392578</v>
       </c>
       <c r="AY39" s="1">
-        <v>60.636062622070312</v>
+        <v>60.636062622070313</v>
       </c>
       <c r="AZ39" s="1">
         <v>80.086585998535156</v>
@@ -18124,7 +18136,7 @@
         <v>70.556991577148438</v>
       </c>
       <c r="BV39" s="1">
-        <v>99.281753540039062</v>
+        <v>99.281753540039063</v>
       </c>
       <c r="BW39" s="1">
         <v>35.776649475097656</v>
@@ -18210,7 +18222,7 @@
         <v>-19.765317916870117</v>
       </c>
       <c r="CZ39" s="1">
-        <v>31.809402465820312</v>
+        <v>31.809402465820313</v>
       </c>
       <c r="DA39" s="1">
         <v>95.663673400878906</v>
@@ -18304,7 +18316,7 @@
       </c>
       <c r="EE39" s="1"/>
     </row>
-    <row r="40" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>10740</v>
       </c>
@@ -18423,7 +18435,7 @@
         <v>0</v>
       </c>
       <c r="AN40" s="1">
-        <v>37.162673950195312</v>
+        <v>37.162673950195313</v>
       </c>
       <c r="AO40" s="1">
         <v>62.999992370605469</v>
@@ -18453,7 +18465,7 @@
         <v>15.159881591796875</v>
       </c>
       <c r="AX40" s="1">
-        <v>14.861221313476562</v>
+        <v>14.861221313476563</v>
       </c>
       <c r="AY40" s="1">
         <v>53.376316070556641</v>
@@ -18504,7 +18516,7 @@
         <v>54.838706970214844</v>
       </c>
       <c r="BO40" s="1">
-        <v>98.651992797851562</v>
+        <v>98.651992797851563</v>
       </c>
       <c r="BP40" s="1">
         <v>24.454708099365234</v>
@@ -18702,16 +18714,16 @@
         <v>605.9693603515625</v>
       </c>
       <c r="EC40" s="1">
-        <v>284.83694458007812</v>
+        <v>284.83694458007813</v>
       </c>
       <c r="ED40" s="1">
         <v>8.149836540222168</v>
       </c>
       <c r="EE40" s="1">
-        <v>39.076736450195312</v>
+        <v>39.076736450195313</v>
       </c>
     </row>
-    <row r="41" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>37980</v>
       </c>
@@ -18752,7 +18764,7 @@
         <v>17.749618530273438</v>
       </c>
       <c r="N41" s="1">
-        <v>50.657608032226562</v>
+        <v>50.657608032226563</v>
       </c>
       <c r="O41" s="1">
         <v>44.541778564453125</v>
@@ -18770,7 +18782,7 @@
         <v>72.277931213378906</v>
       </c>
       <c r="T41" s="1">
-        <v>69.727310180664062</v>
+        <v>69.727310180664063</v>
       </c>
       <c r="U41" s="1">
         <v>49.148166656494141</v>
@@ -18818,7 +18830,7 @@
         <v>35.142066955566406</v>
       </c>
       <c r="AJ41" s="1">
-        <v>73.806838989257812</v>
+        <v>73.806838989257813</v>
       </c>
       <c r="AK41" s="1">
         <v>35.854763031005859</v>
@@ -18863,7 +18875,7 @@
         <v>36.205051422119141</v>
       </c>
       <c r="AY41" s="1">
-        <v>74.642227172851562</v>
+        <v>74.642227172851563</v>
       </c>
       <c r="AZ41" s="1">
         <v>41.125541687011719</v>
@@ -18878,7 +18890,7 @@
         <v>42.471912384033203</v>
       </c>
       <c r="BD41" s="1">
-        <v>13.978897094726562</v>
+        <v>13.978897094726563</v>
       </c>
       <c r="BE41" s="1">
         <v>43.58367919921875</v>
@@ -18932,7 +18944,7 @@
         <v>64.013847351074219</v>
       </c>
       <c r="BV41" s="1">
-        <v>99.697402954101562</v>
+        <v>99.697402954101563</v>
       </c>
       <c r="BW41" s="1">
         <v>0</v>
@@ -19106,10 +19118,10 @@
         <v>-16.605596542358398</v>
       </c>
       <c r="EB41" s="1">
-        <v>1011.7495727539062</v>
+        <v>1011.7495727539063</v>
       </c>
       <c r="EC41" s="1">
-        <v>204.27127075195312</v>
+        <v>204.27127075195313</v>
       </c>
       <c r="ED41" s="1">
         <v>6.9211678504943848</v>
@@ -19118,7 +19130,7 @@
         <v>5.8348207473754883</v>
       </c>
     </row>
-    <row r="42" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>16740</v>
       </c>
@@ -19153,7 +19165,7 @@
         <v>55.494903564453125</v>
       </c>
       <c r="L42" s="1">
-        <v>87.239944458007812</v>
+        <v>87.239944458007813</v>
       </c>
       <c r="M42" s="1">
         <v>28.442365646362305</v>
@@ -19171,7 +19183,7 @@
         <v>43.174163818359375</v>
       </c>
       <c r="R42" s="1">
-        <v>62.609451293945312</v>
+        <v>62.609451293945313</v>
       </c>
       <c r="S42" s="1">
         <v>31.396150588989258</v>
@@ -19237,7 +19249,7 @@
         <v>70.212890625</v>
       </c>
       <c r="AN42" s="1">
-        <v>30.070388793945312</v>
+        <v>30.070388793945313</v>
       </c>
       <c r="AO42" s="1">
         <v>27.999990463256836</v>
@@ -19249,7 +19261,7 @@
         <v>100</v>
       </c>
       <c r="AR42" s="1">
-        <v>91.447463989257812</v>
+        <v>91.447463989257813</v>
       </c>
       <c r="AS42" s="1">
         <v>76.516304016113281</v>
@@ -19312,7 +19324,7 @@
         <v>100</v>
       </c>
       <c r="BM42" s="1">
-        <v>23.630142211914062</v>
+        <v>23.630142211914063</v>
       </c>
       <c r="BN42" s="1">
         <v>59.677410125732422</v>
@@ -19321,7 +19333,7 @@
         <v>84.836288452148438</v>
       </c>
       <c r="BP42" s="1">
-        <v>43.314651489257812</v>
+        <v>43.314651489257813</v>
       </c>
       <c r="BQ42" s="1">
         <v>58.518718719482422</v>
@@ -19510,7 +19522,7 @@
         <v>81.329521179199219</v>
       </c>
       <c r="EA42" s="1">
-        <v>-4.6583328247070312</v>
+        <v>-4.6583328247070313</v>
       </c>
       <c r="EB42" s="1">
         <v>752.13275146484375</v>
@@ -19525,7 +19537,7 @@
         <v>6.4858102798461914</v>
       </c>
     </row>
-    <row r="43" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>15980</v>
       </c>
@@ -19593,7 +19605,7 @@
         <v>54.441261291503906</v>
       </c>
       <c r="W43" s="1">
-        <v>43.356643676757812</v>
+        <v>43.356643676757813</v>
       </c>
       <c r="X43" s="1">
         <v>62.857143402099609</v>
@@ -19614,13 +19626,13 @@
         <v>66.700141906738281</v>
       </c>
       <c r="AD43" s="1">
-        <v>55.295913696289062</v>
+        <v>55.295913696289063</v>
       </c>
       <c r="AE43" s="1">
         <v>16.0166015625</v>
       </c>
       <c r="AF43" s="1">
-        <v>74.014541625976562</v>
+        <v>74.014541625976563</v>
       </c>
       <c r="AG43" s="1">
         <v>51.325141906738281</v>
@@ -19698,7 +19710,7 @@
         <v>28.880367279052734</v>
       </c>
       <c r="BF43" s="1">
-        <v>80.854385375976562</v>
+        <v>80.854385375976563</v>
       </c>
       <c r="BG43" s="1">
         <v>36.613788604736328</v>
@@ -19732,7 +19744,7 @@
         <v>47.440242767333984</v>
       </c>
       <c r="BR43" s="1">
-        <v>20.682815551757812</v>
+        <v>20.682815551757813</v>
       </c>
       <c r="BS43" s="1">
         <v>100</v>
@@ -19806,7 +19818,7 @@
         <v>20.5</v>
       </c>
       <c r="CR43" s="1">
-        <v>79.054580688476562</v>
+        <v>79.054580688476563</v>
       </c>
       <c r="CS43" s="1">
         <v>29.330915451049805</v>
@@ -19827,7 +19839,7 @@
         <v>74.883537292480469</v>
       </c>
       <c r="CY43" s="1">
-        <v>-21.110000610351562</v>
+        <v>-21.110000610351563</v>
       </c>
       <c r="CZ43" s="1">
         <v>35.972095489501953</v>
@@ -19920,7 +19932,7 @@
         <v>25.59288215637207</v>
       </c>
     </row>
-    <row r="44" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>29820</v>
       </c>
@@ -20069,7 +20081,7 @@
         <v>31.640983581542969</v>
       </c>
       <c r="AX44" s="1">
-        <v>52.321487426757812</v>
+        <v>52.321487426757813</v>
       </c>
       <c r="AY44" s="1">
         <v>46.043247222900391</v>
@@ -20090,7 +20102,7 @@
         <v>42.341949462890625</v>
       </c>
       <c r="BE44" s="1">
-        <v>35.938919067382812</v>
+        <v>35.938919067382813</v>
       </c>
       <c r="BF44" s="1">
         <v>70.777992248535156</v>
@@ -20318,7 +20330,7 @@
         <v>1044.3900146484375</v>
       </c>
       <c r="EC44" s="1">
-        <v>307.92861938476562</v>
+        <v>307.92861938476563</v>
       </c>
       <c r="ED44" s="1">
         <v>6.147150993347168</v>
@@ -20327,7 +20339,7 @@
         <v>11.219806671142578</v>
       </c>
     </row>
-    <row r="45" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>36540</v>
       </c>
@@ -20428,7 +20440,7 @@
         <v>84.657379150390625</v>
       </c>
       <c r="AH45" s="1">
-        <v>97.867202758789062</v>
+        <v>97.867202758789063</v>
       </c>
       <c r="AI45" s="1">
         <v>45.809391021728516</v>
@@ -20473,7 +20485,7 @@
         <v>74.095726013183594</v>
       </c>
       <c r="AW45" s="1">
-        <v>43.666702270507812</v>
+        <v>43.666702270507813</v>
       </c>
       <c r="AX45" s="1">
         <v>45.13275146484375</v>
@@ -20587,7 +20599,7 @@
         <v>30.948048174381256</v>
       </c>
       <c r="CI45" s="1">
-        <v>5.8584365844726562</v>
+        <v>5.8584365844726563</v>
       </c>
       <c r="CJ45" s="1">
         <v>7.5983953475952148</v>
@@ -20641,7 +20653,7 @@
         <v>27.127439498901367</v>
       </c>
       <c r="DA45" s="1">
-        <v>74.379043579101562</v>
+        <v>74.379043579101563</v>
       </c>
       <c r="DB45" s="1">
         <v>18.565011978149414</v>
@@ -20725,7 +20737,7 @@
         <v>721.16845703125</v>
       </c>
       <c r="EC45" s="1">
-        <v>191.98660278320312</v>
+        <v>191.98660278320313</v>
       </c>
       <c r="ED45" s="1">
         <v>5.6999578475952148</v>
@@ -20734,7 +20746,7 @@
         <v>19.903633117675781</v>
       </c>
     </row>
-    <row r="46" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>28140</v>
       </c>
@@ -20748,7 +20760,7 @@
         <v>506</v>
       </c>
       <c r="E46" s="1">
-        <v>48.987442016601562</v>
+        <v>48.987442016601563</v>
       </c>
       <c r="F46" s="1">
         <v>45</v>
@@ -20769,7 +20781,7 @@
         <v>44.0648193359375</v>
       </c>
       <c r="L46" s="1">
-        <v>86.569107055664062</v>
+        <v>86.569107055664063</v>
       </c>
       <c r="M46" s="1">
         <v>30.562419891357422</v>
@@ -20835,7 +20847,7 @@
         <v>52.377422332763672</v>
       </c>
       <c r="AH46" s="1">
-        <v>78.375747680664062</v>
+        <v>78.375747680664063</v>
       </c>
       <c r="AI46" s="1">
         <v>41.632675170898438</v>
@@ -20868,7 +20880,7 @@
         <v>92.975738525390625</v>
       </c>
       <c r="AS46" s="1">
-        <v>68.221572875976562</v>
+        <v>68.221572875976563</v>
       </c>
       <c r="AT46" s="1">
         <v>98.510009765625</v>
@@ -20931,7 +20943,7 @@
         <v>25.856166839599609</v>
       </c>
       <c r="BN46" s="1">
-        <v>56.451614379882812</v>
+        <v>56.451614379882813</v>
       </c>
       <c r="BO46" s="1">
         <v>55.520736694335938</v>
@@ -21138,10 +21150,10 @@
         <v>10.229588508605957</v>
       </c>
       <c r="EE46" s="1">
-        <v>6.2441177368164062</v>
+        <v>6.2441177368164063</v>
       </c>
     </row>
-    <row r="47" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>36260</v>
       </c>
@@ -21188,7 +21200,7 @@
         <v>36.938072204589844</v>
       </c>
       <c r="P47" s="1">
-        <v>79.955032348632812</v>
+        <v>79.955032348632813</v>
       </c>
       <c r="Q47" s="1">
         <v>54.854896545410156</v>
@@ -21197,16 +21209,16 @@
         <v>50.084575653076172</v>
       </c>
       <c r="S47" s="1">
-        <v>18.220474243164062</v>
+        <v>18.220474243164063</v>
       </c>
       <c r="T47" s="1">
-        <v>98.593399047851562</v>
+        <v>98.593399047851563</v>
       </c>
       <c r="U47" s="1">
         <v>48.921802520751953</v>
       </c>
       <c r="V47" s="1">
-        <v>78.510025024414062</v>
+        <v>78.510025024414063</v>
       </c>
       <c r="W47" s="1">
         <v>78.321678161621094</v>
@@ -21227,7 +21239,7 @@
         <v>21.234210968017578</v>
       </c>
       <c r="AC47" s="1">
-        <v>48.338821411132812</v>
+        <v>48.338821411132813</v>
       </c>
       <c r="AD47" s="1">
         <v>75.973030090332031</v>
@@ -21248,7 +21260,7 @@
         <v>48.063175201416016</v>
       </c>
       <c r="AJ47" s="1">
-        <v>65.243667602539062</v>
+        <v>65.243667602539063</v>
       </c>
       <c r="AK47" s="1">
         <v>4.5385780334472656</v>
@@ -21315,7 +21327,7 @@
         <v>91.513999938964844</v>
       </c>
       <c r="BG47" s="1">
-        <v>65.667251586914062</v>
+        <v>65.667251586914063</v>
       </c>
       <c r="BH47" s="1">
         <v>43.589744567871094</v>
@@ -21339,7 +21351,7 @@
         <v>43.548381805419922</v>
       </c>
       <c r="BO47" s="1">
-        <v>97.638076782226562</v>
+        <v>97.638076782226563</v>
       </c>
       <c r="BP47" s="1">
         <v>9.0672664642333984</v>
@@ -21356,7 +21368,7 @@
       <c r="BT47" s="1"/>
       <c r="BU47" s="1"/>
       <c r="BV47" s="1">
-        <v>98.593399047851562</v>
+        <v>98.593399047851563</v>
       </c>
       <c r="BW47" s="1">
         <v>0</v>
@@ -21532,7 +21544,7 @@
       </c>
       <c r="EE47" s="1"/>
     </row>
-    <row r="48" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>10900</v>
       </c>
@@ -21567,7 +21579,7 @@
         <v>14.08497142791748</v>
       </c>
       <c r="L48" s="1">
-        <v>71.063064575195312</v>
+        <v>71.063064575195313</v>
       </c>
       <c r="M48" s="1">
         <v>15.064599990844727</v>
@@ -21627,7 +21639,7 @@
         <v>69.907501220703125</v>
       </c>
       <c r="AF48" s="1">
-        <v>67.165664672851562</v>
+        <v>67.165664672851563</v>
       </c>
       <c r="AG48" s="1">
         <v>48.63568115234375</v>
@@ -21661,7 +21673,7 @@
       </c>
       <c r="AQ48" s="1"/>
       <c r="AR48" s="1">
-        <v>35.829483032226562</v>
+        <v>35.829483032226563</v>
       </c>
       <c r="AS48" s="1">
         <v>80.264892578125</v>
@@ -21703,7 +21715,7 @@
         <v>86.023567199707031</v>
       </c>
       <c r="BF48" s="1">
-        <v>39.386550903320312</v>
+        <v>39.386550903320313</v>
       </c>
       <c r="BG48" s="1">
         <v>68.697296142578125</v>
@@ -21727,7 +21739,7 @@
         <v>9.5890445709228516</v>
       </c>
       <c r="BN48" s="1">
-        <v>56.451614379882812</v>
+        <v>56.451614379882813</v>
       </c>
       <c r="BO48" s="1">
         <v>95.323776245117188</v>
@@ -21923,7 +21935,7 @@
       </c>
       <c r="EE48" s="1"/>
     </row>
-    <row r="49" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>12060</v>
       </c>
@@ -21952,7 +21964,7 @@
         <v>53.096904754638672</v>
       </c>
       <c r="J49" s="1">
-        <v>40.181961059570312</v>
+        <v>40.181961059570313</v>
       </c>
       <c r="K49" s="1">
         <v>62.688331604003906</v>
@@ -22009,7 +22021,7 @@
         <v>19.295835494995117</v>
       </c>
       <c r="AC49" s="1">
-        <v>43.231765747070312</v>
+        <v>43.231765747070313</v>
       </c>
       <c r="AD49" s="1">
         <v>49.105064392089844</v>
@@ -22057,7 +22069,7 @@
         <v>38.687824249267578</v>
       </c>
       <c r="AS49" s="1">
-        <v>75.904495239257812</v>
+        <v>75.904495239257813</v>
       </c>
       <c r="AT49" s="1">
         <v>96.291160583496094</v>
@@ -22225,7 +22237,7 @@
         <v>47.058823529411761</v>
       </c>
       <c r="CW49" s="1">
-        <v>48.520156860351562</v>
+        <v>48.520156860351563</v>
       </c>
       <c r="CX49" s="1">
         <v>75.507713317871094</v>
@@ -22312,7 +22324,7 @@
         <v>5.9240355491638184</v>
       </c>
       <c r="DZ49" s="1">
-        <v>26.127029418945312</v>
+        <v>26.127029418945313</v>
       </c>
       <c r="EA49" s="1">
         <v>-11.81865406036377</v>
@@ -22330,7 +22342,7 @@
         <v>-13.295857429504395</v>
       </c>
     </row>
-    <row r="50" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>33700</v>
       </c>
@@ -22368,7 +22380,7 @@
         <v>81.324043273925781</v>
       </c>
       <c r="M50" s="1">
-        <v>34.710464477539062</v>
+        <v>34.710464477539063</v>
       </c>
       <c r="N50" s="1">
         <v>29.951410293579102</v>
@@ -22398,10 +22410,10 @@
         <v>43.553009033203125</v>
       </c>
       <c r="W50" s="1">
-        <v>45.454544067382812</v>
+        <v>45.454544067382813</v>
       </c>
       <c r="X50" s="1">
-        <v>58.571426391601562</v>
+        <v>58.571426391601563</v>
       </c>
       <c r="Y50" s="1">
         <v>100</v>
@@ -22632,7 +22644,7 @@
         <v>93.682243347167969</v>
       </c>
       <c r="CY50" s="1">
-        <v>-21.110000610351562</v>
+        <v>-21.110000610351563</v>
       </c>
       <c r="CZ50" s="1">
         <v>31.858463287353516</v>
@@ -22716,7 +22728,7 @@
         <v>785.9427490234375</v>
       </c>
       <c r="EC50" s="1">
-        <v>172.24160766601562</v>
+        <v>172.24160766601563</v>
       </c>
       <c r="ED50" s="1">
         <v>3.7472808361053467</v>
@@ -22725,7 +22737,7 @@
         <v>23.824924468994141</v>
       </c>
     </row>
-    <row r="51" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>29540</v>
       </c>
@@ -22784,7 +22796,7 @@
         <v>22.864231109619141</v>
       </c>
       <c r="T51" s="1">
-        <v>89.576187133789062</v>
+        <v>89.576187133789063</v>
       </c>
       <c r="U51" s="1">
         <v>50.293247222900391</v>
@@ -22820,7 +22832,7 @@
         <v>48.656536102294922</v>
       </c>
       <c r="AF51" s="1">
-        <v>64.569351196289062</v>
+        <v>64.569351196289063</v>
       </c>
       <c r="AG51" s="1">
         <v>39.678379058837891</v>
@@ -22888,7 +22900,7 @@
         <v>21.573030471801758</v>
       </c>
       <c r="BD51" s="1">
-        <v>99.878433227539062</v>
+        <v>99.878433227539063</v>
       </c>
       <c r="BE51" s="1">
         <v>82.020553588867188</v>
@@ -22936,7 +22948,7 @@
       <c r="BT51" s="1"/>
       <c r="BU51" s="1"/>
       <c r="BV51" s="1">
-        <v>89.576187133789062</v>
+        <v>89.576187133789063</v>
       </c>
       <c r="BW51" s="1">
         <v>0</v>
@@ -22945,7 +22957,7 @@
         <v>53.314418792724609</v>
       </c>
       <c r="BY51" s="1">
-        <v>97.565322875976562</v>
+        <v>97.565322875976563</v>
       </c>
       <c r="BZ51" s="1"/>
       <c r="CA51" s="1">
@@ -22979,7 +22991,7 @@
         <v>9.3996639251708984</v>
       </c>
       <c r="CK51" s="1">
-        <v>348.36819458007812</v>
+        <v>348.36819458007813</v>
       </c>
       <c r="CL51" s="1">
         <v>3.8920235633850098</v>
@@ -23063,7 +23075,7 @@
         <v>2.7000000476837158</v>
       </c>
       <c r="DO51" s="1">
-        <v>16.731216430664062</v>
+        <v>16.731216430664063</v>
       </c>
       <c r="DP51" s="1">
         <v>26</v>
@@ -23108,7 +23120,7 @@
       </c>
       <c r="EE51" s="1"/>
     </row>
-    <row r="52" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>41700</v>
       </c>
@@ -23134,7 +23146,7 @@
         <v>36.104434967041016</v>
       </c>
       <c r="I52" s="1">
-        <v>50.350723266601562</v>
+        <v>50.350723266601563</v>
       </c>
       <c r="J52" s="1">
         <v>38.349266052246094</v>
@@ -23398,7 +23410,7 @@
         <v>89.547404527664185</v>
       </c>
       <c r="CS52" s="1">
-        <v>37.709976196289062</v>
+        <v>37.709976196289063</v>
       </c>
       <c r="CT52" s="1">
         <v>79.2</v>
@@ -23515,7 +23527,7 @@
         <v>-7.7970304489135742</v>
       </c>
     </row>
-    <row r="53" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>18140</v>
       </c>
@@ -23571,7 +23583,7 @@
         <v>56.278617858886719</v>
       </c>
       <c r="S53" s="1">
-        <v>70.579971313476562</v>
+        <v>70.579971313476563</v>
       </c>
       <c r="T53" s="1">
         <v>29.89393424987793</v>
@@ -23583,7 +23595,7 @@
         <v>45.845268249511719</v>
       </c>
       <c r="W53" s="1">
-        <v>41.258743286132812</v>
+        <v>41.258743286132813</v>
       </c>
       <c r="X53" s="1">
         <v>65.714279174804688</v>
@@ -23634,7 +23646,7 @@
         <v>95.238937377929688</v>
       </c>
       <c r="AN53" s="1">
-        <v>41.803482055664062</v>
+        <v>41.803482055664063</v>
       </c>
       <c r="AO53" s="1">
         <v>37.250003814697266</v>
@@ -23670,7 +23682,7 @@
         <v>79.262069702148438</v>
       </c>
       <c r="AZ53" s="1">
-        <v>77.922073364257812</v>
+        <v>77.922073364257813</v>
       </c>
       <c r="BA53" s="1">
         <v>61.042011260986328</v>
@@ -23712,7 +23724,7 @@
         <v>24.657535552978516</v>
       </c>
       <c r="BN53" s="1">
-        <v>56.451614379882812</v>
+        <v>56.451614379882813</v>
       </c>
       <c r="BO53" s="1">
         <v>73.457542419433594</v>
@@ -23721,7 +23733,7 @@
         <v>38.92669677734375</v>
       </c>
       <c r="BQ53" s="1">
-        <v>64.219497680664062</v>
+        <v>64.219497680664063</v>
       </c>
       <c r="BR53" s="1">
         <v>47.520416259765625</v>
@@ -23742,7 +23754,7 @@
         <v>54.976982116699219</v>
       </c>
       <c r="BX53" s="1">
-        <v>56.864212036132812</v>
+        <v>56.864212036132813</v>
       </c>
       <c r="BY53" s="1">
         <v>51.490688323974609</v>
@@ -23916,13 +23928,13 @@
         <v>186.37310791015625</v>
       </c>
       <c r="ED53" s="1">
-        <v>7.7235488891601562</v>
+        <v>7.7235488891601563</v>
       </c>
       <c r="EE53" s="1">
         <v>1.8876559734344482</v>
       </c>
     </row>
-    <row r="54" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45300</v>
       </c>
@@ -23972,7 +23984,7 @@
         <v>57.445629119873047</v>
       </c>
       <c r="Q54" s="1">
-        <v>44.012222290039062</v>
+        <v>44.012222290039063</v>
       </c>
       <c r="R54" s="1">
         <v>68.675689697265625</v>
@@ -23993,7 +24005,7 @@
         <v>36.363636016845703</v>
       </c>
       <c r="X54" s="1">
-        <v>58.571426391601562</v>
+        <v>58.571426391601563</v>
       </c>
       <c r="Y54" s="1">
         <v>0</v>
@@ -24140,7 +24152,7 @@
         <v>20.814327239990234</v>
       </c>
       <c r="BU54" s="1">
-        <v>66.288772583007812</v>
+        <v>66.288772583007813</v>
       </c>
       <c r="BV54" s="1">
         <v>98.747566223144531</v>
@@ -24152,7 +24164,7 @@
         <v>47.36285400390625</v>
       </c>
       <c r="BY54" s="1">
-        <v>81.120376586914062</v>
+        <v>81.120376586914063</v>
       </c>
       <c r="BZ54" s="1">
         <v>100</v>
@@ -24224,7 +24236,7 @@
         <v>12.5</v>
       </c>
       <c r="CW54" s="1">
-        <v>29.204177856445312</v>
+        <v>29.204177856445313</v>
       </c>
       <c r="CX54" s="1">
         <v>61.608955383300781</v>
@@ -24320,7 +24332,7 @@
         <v>1204.47900390625</v>
       </c>
       <c r="EC54" s="1">
-        <v>227.42483520507812</v>
+        <v>227.42483520507813</v>
       </c>
       <c r="ED54" s="1">
         <v>3.6708157062530518</v>
@@ -24329,7 +24341,7 @@
         <v>-21.144718170166016</v>
       </c>
     </row>
-    <row r="55" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>40380</v>
       </c>
@@ -24445,7 +24457,7 @@
         <v>48.289741516113281</v>
       </c>
       <c r="AM55" s="1">
-        <v>54.718338012695312</v>
+        <v>54.718338012695313</v>
       </c>
       <c r="AN55" s="1">
         <v>13.518667221069336</v>
@@ -24487,7 +24499,7 @@
         <v>56.277061462402344</v>
       </c>
       <c r="BA55" s="1">
-        <v>56.962661743164062</v>
+        <v>56.962661743164063</v>
       </c>
       <c r="BB55" s="1">
         <v>74.45343017578125</v>
@@ -24517,7 +24529,7 @@
         <v>8.7728977203369141</v>
       </c>
       <c r="BK55" s="1">
-        <v>19.146560668945312</v>
+        <v>19.146560668945313</v>
       </c>
       <c r="BL55" s="1">
         <v>100</v>
@@ -24728,7 +24740,7 @@
         <v>3.5051841735839844</v>
       </c>
     </row>
-    <row r="56" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>34980</v>
       </c>
@@ -24844,7 +24856,7 @@
         <v>67.907447814941406</v>
       </c>
       <c r="AM56" s="1">
-        <v>85.987625122070312</v>
+        <v>85.987625122070313</v>
       </c>
       <c r="AN56" s="1">
         <v>36.68170166015625</v>
@@ -24905,7 +24917,7 @@
         <v>86.769256591796875</v>
       </c>
       <c r="BH56" s="1">
-        <v>52.564102172851562</v>
+        <v>52.564102172851563</v>
       </c>
       <c r="BI56" s="1">
         <v>79</v>
@@ -24926,7 +24938,7 @@
         <v>66.1290283203125</v>
       </c>
       <c r="BO56" s="1">
-        <v>89.814224243164062</v>
+        <v>89.814224243164063</v>
       </c>
       <c r="BP56" s="1">
         <v>61.438358306884766</v>
@@ -25027,7 +25039,7 @@
         <v>14.741518974304199</v>
       </c>
       <c r="CX56" s="1">
-        <v>80.507766723632812</v>
+        <v>80.507766723632813</v>
       </c>
       <c r="CY56" s="1">
         <v>-15.78727912902832</v>
@@ -25127,7 +25139,7 @@
       </c>
       <c r="EE56" s="1"/>
     </row>
-    <row r="57" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>16700</v>
       </c>
@@ -25147,7 +25159,7 @@
         <v>56</v>
       </c>
       <c r="G57" s="1">
-        <v>31.075881958007812</v>
+        <v>31.075881958007813</v>
       </c>
       <c r="H57" s="1">
         <v>34.664360046386719</v>
@@ -25426,7 +25438,7 @@
         <v>2.4516112804412842</v>
       </c>
       <c r="CX57" s="1">
-        <v>99.938125610351562</v>
+        <v>99.938125610351563</v>
       </c>
       <c r="CY57" s="1">
         <v>2.3103232383728027</v>
@@ -25522,7 +25534,7 @@
         <v>-8.9942178726196289</v>
       </c>
     </row>
-    <row r="58" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>46060</v>
       </c>
@@ -25572,7 +25584,7 @@
         <v>57.999065399169922</v>
       </c>
       <c r="Q58" s="1">
-        <v>48.392288208007812</v>
+        <v>48.392288208007813</v>
       </c>
       <c r="R58" s="1">
         <v>74.585655212402344</v>
@@ -25605,7 +25617,7 @@
         <v>20.998113632202148</v>
       </c>
       <c r="AB58" s="1">
-        <v>35.735366821289062</v>
+        <v>35.735366821289063</v>
       </c>
       <c r="AC58" s="1">
         <v>68.753364562988281</v>
@@ -25797,7 +25809,7 @@
         <v>23.581502914428711</v>
       </c>
       <c r="CN58" s="1">
-        <v>79.632278442382812</v>
+        <v>79.632278442382813</v>
       </c>
       <c r="CO58" s="1">
         <v>91.7</v>
@@ -25896,7 +25908,7 @@
         <v>83271.266138899999</v>
       </c>
       <c r="DU58" s="1">
-        <v>-10.760269165039062</v>
+        <v>-10.760269165039063</v>
       </c>
       <c r="DV58" s="1">
         <v>5.0178401654533014</v>
@@ -25920,7 +25932,7 @@
         <v>1147.804931640625</v>
       </c>
       <c r="EC58" s="1">
-        <v>355.52859497070312</v>
+        <v>355.52859497070313</v>
       </c>
       <c r="ED58" s="1">
         <v>4.3948836326599121</v>
@@ -25929,7 +25941,7 @@
         <v>25.584148406982422</v>
       </c>
     </row>
-    <row r="59" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>33100</v>
       </c>
@@ -25949,7 +25961,7 @@
         <v>58</v>
       </c>
       <c r="G59" s="1">
-        <v>47.753738403320312</v>
+        <v>47.753738403320313</v>
       </c>
       <c r="H59" s="1">
         <v>62.751689910888672</v>
@@ -26009,7 +26021,7 @@
         <v>100</v>
       </c>
       <c r="AA59" s="1">
-        <v>33.890396118164062</v>
+        <v>33.890396118164063</v>
       </c>
       <c r="AB59" s="1">
         <v>73.149284362792969</v>
@@ -26108,7 +26120,7 @@
         <v>26.179176330566406</v>
       </c>
       <c r="BH59" s="1">
-        <v>42.307693481445312</v>
+        <v>42.307693481445313</v>
       </c>
       <c r="BI59" s="1">
         <v>52</v>
@@ -26150,7 +26162,7 @@
         <v>57.868171691894531</v>
       </c>
       <c r="BV59" s="1">
-        <v>99.042007446289062</v>
+        <v>99.042007446289063</v>
       </c>
       <c r="BW59" s="1">
         <v>0</v>
@@ -26234,7 +26246,7 @@
         <v>50.276828765869141</v>
       </c>
       <c r="CX59" s="1">
-        <v>90.895462036132812</v>
+        <v>90.895462036132813</v>
       </c>
       <c r="CY59" s="1">
         <v>701.2938232421875</v>
@@ -26309,7 +26321,7 @@
         <v>8.2467907139935832</v>
       </c>
       <c r="DW59" s="1">
-        <v>76.050003051757812</v>
+        <v>76.050003051757813</v>
       </c>
       <c r="DX59" s="1">
         <v>1</v>
@@ -26336,7 +26348,7 @@
         <v>5.280336856842041</v>
       </c>
     </row>
-    <row r="60" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44060</v>
       </c>
@@ -26635,7 +26647,7 @@
         <v>15.723689079284668</v>
       </c>
       <c r="CX60" s="1">
-        <v>224.06375122070312</v>
+        <v>224.06375122070313</v>
       </c>
       <c r="CY60" s="1">
         <v>-8.3508806228637695</v>
@@ -26644,7 +26656,7 @@
         <v>87.32470703125</v>
       </c>
       <c r="DA60" s="1">
-        <v>90.015762329101562</v>
+        <v>90.015762329101563</v>
       </c>
       <c r="DB60" s="1">
         <v>45.257991790771484</v>
@@ -26731,7 +26743,7 @@
         <v>17.417119979858398</v>
       </c>
     </row>
-    <row r="61" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>25540</v>
       </c>
@@ -26772,7 +26784,7 @@
         <v>15.360075950622559</v>
       </c>
       <c r="N61" s="1">
-        <v>43.873611450195312</v>
+        <v>43.873611450195313</v>
       </c>
       <c r="O61" s="1">
         <v>48.270336151123047</v>
@@ -26835,7 +26847,7 @@
         <v>20.911212921142578</v>
       </c>
       <c r="AI61" s="1">
-        <v>65.243362426757812</v>
+        <v>65.243362426757813</v>
       </c>
       <c r="AJ61" s="1">
         <v>79.347702026367188</v>
@@ -26860,7 +26872,7 @@
       </c>
       <c r="AQ61" s="1"/>
       <c r="AR61" s="1">
-        <v>41.187149047851562</v>
+        <v>41.187149047851563</v>
       </c>
       <c r="AS61" s="1">
         <v>100</v>
@@ -26896,7 +26908,7 @@
         <v>43.146060943603516</v>
       </c>
       <c r="BD61" s="1">
-        <v>50.445693969726562</v>
+        <v>50.445693969726563</v>
       </c>
       <c r="BE61" s="1">
         <v>59.033554077148438</v>
@@ -26935,7 +26947,7 @@
         <v>10.682353973388672</v>
       </c>
       <c r="BQ61" s="1">
-        <v>60.073928833007812</v>
+        <v>60.073928833007813</v>
       </c>
       <c r="BR61" s="1">
         <v>52.610195159912109</v>
@@ -27114,7 +27126,7 @@
       </c>
       <c r="EE61" s="1"/>
     </row>
-    <row r="62" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>35840</v>
       </c>
@@ -27206,7 +27218,7 @@
         <v>55.678260803222656</v>
       </c>
       <c r="AE62" s="1">
-        <v>28.382522583007812</v>
+        <v>28.382522583007813</v>
       </c>
       <c r="AF62" s="1">
         <v>74.086860656738281</v>
@@ -27319,7 +27331,7 @@
         <v>49.313697814941406</v>
       </c>
       <c r="BR62" s="1">
-        <v>38.864822387695312</v>
+        <v>38.864822387695313</v>
       </c>
       <c r="BS62" s="1">
         <v>0</v>
@@ -27410,7 +27422,7 @@
         <v>63.420406341552734</v>
       </c>
       <c r="CY62" s="1">
-        <v>207.27273559570312</v>
+        <v>207.27273559570313</v>
       </c>
       <c r="CZ62" s="1">
         <v>34.913734436035156</v>
@@ -27501,7 +27513,7 @@
       </c>
       <c r="EE62" s="1"/>
     </row>
-    <row r="63" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>25420</v>
       </c>
@@ -27560,7 +27572,7 @@
         <v>32.070980072021484</v>
       </c>
       <c r="T63" s="1">
-        <v>96.326004028320312</v>
+        <v>96.326004028320313</v>
       </c>
       <c r="U63" s="1">
         <v>34.476421356201172</v>
@@ -27648,16 +27660,16 @@
         <v>6.110358715057373</v>
       </c>
       <c r="AX63" s="1">
-        <v>27.946609497070312</v>
+        <v>27.946609497070313</v>
       </c>
       <c r="AY63" s="1">
         <v>54.696273803710938</v>
       </c>
       <c r="AZ63" s="1">
-        <v>88.744583129882812</v>
+        <v>88.744583129882813</v>
       </c>
       <c r="BA63" s="1">
-        <v>58.572036743164062</v>
+        <v>58.572036743164063</v>
       </c>
       <c r="BB63" s="1">
         <v>11.993575096130371</v>
@@ -27708,7 +27720,7 @@
         <v>55.518157958984375</v>
       </c>
       <c r="BR63" s="1">
-        <v>40.694778442382812</v>
+        <v>40.694778442382813</v>
       </c>
       <c r="BS63" s="1">
         <v>0</v>
@@ -27716,7 +27728,7 @@
       <c r="BT63" s="1"/>
       <c r="BU63" s="1"/>
       <c r="BV63" s="1">
-        <v>96.326004028320312</v>
+        <v>96.326004028320313</v>
       </c>
       <c r="BW63" s="1">
         <v>0</v>
@@ -27783,7 +27795,7 @@
         <v>86.453700542449951</v>
       </c>
       <c r="CS63" s="1">
-        <v>27.941543579101562</v>
+        <v>27.941543579101563</v>
       </c>
       <c r="CT63" s="1">
         <v>70.400000000000006</v>
@@ -27892,7 +27904,7 @@
       </c>
       <c r="EE63" s="1"/>
     </row>
-    <row r="64" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>19820</v>
       </c>
@@ -27912,7 +27924,7 @@
         <v>63</v>
       </c>
       <c r="G64" s="1">
-        <v>45.609695434570312</v>
+        <v>45.609695434570313</v>
       </c>
       <c r="H64" s="1">
         <v>26.850969314575195</v>
@@ -27957,7 +27969,7 @@
         <v>47.283805847167969</v>
       </c>
       <c r="V64" s="1">
-        <v>37.249282836914062</v>
+        <v>37.249282836914063</v>
       </c>
       <c r="W64" s="1">
         <v>29.370626449584961</v>
@@ -28008,7 +28020,7 @@
         <v>45.774650573730469</v>
       </c>
       <c r="AM64" s="1">
-        <v>65.136367797851562</v>
+        <v>65.136367797851563</v>
       </c>
       <c r="AN64" s="1">
         <v>33.697837829589844</v>
@@ -28023,7 +28035,7 @@
         <v>72.222221374511719</v>
       </c>
       <c r="AR64" s="1">
-        <v>94.064590454101562</v>
+        <v>94.064590454101563</v>
       </c>
       <c r="AS64" s="1">
         <v>80.944015502929688</v>
@@ -28053,7 +28065,7 @@
         <v>67.011322021484375</v>
       </c>
       <c r="BB64" s="1">
-        <v>52.010269165039062</v>
+        <v>52.010269165039063</v>
       </c>
       <c r="BC64" s="1">
         <v>32.359554290771484</v>
@@ -28095,7 +28107,7 @@
         <v>74.0531005859375</v>
       </c>
       <c r="BP64" s="1">
-        <v>69.435317993164062</v>
+        <v>69.435317993164063</v>
       </c>
       <c r="BQ64" s="1">
         <v>23.491889953613281</v>
@@ -28203,7 +28215,7 @@
         <v>-10.524750709533691</v>
       </c>
       <c r="CZ64" s="1">
-        <v>30.261795043945312</v>
+        <v>30.261795043945313</v>
       </c>
       <c r="DA64" s="1">
         <v>29.317100524902344</v>
@@ -28284,7 +28296,7 @@
         <v>0.55926394462585449</v>
       </c>
       <c r="EA64" s="1">
-        <v>111.64785766601562</v>
+        <v>111.64785766601563</v>
       </c>
       <c r="EB64" s="1">
         <v>896.41522216796875</v>
@@ -28299,7 +28311,7 @@
         <v>10.864748001098633</v>
       </c>
     </row>
-    <row r="65" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>24660</v>
       </c>
@@ -28325,7 +28337,7 @@
         <v>20.187873840332031</v>
       </c>
       <c r="I65" s="1">
-        <v>36.534683227539062</v>
+        <v>36.534683227539063</v>
       </c>
       <c r="J65" s="1">
         <v>41.423374176025391</v>
@@ -28433,10 +28445,10 @@
         <v>96.890869140625</v>
       </c>
       <c r="AS65" s="1">
-        <v>79.704055786132812</v>
+        <v>79.704055786132813</v>
       </c>
       <c r="AT65" s="1">
-        <v>92.013076782226562</v>
+        <v>92.013076782226563</v>
       </c>
       <c r="AU65" s="1">
         <v>35.921607971191406</v>
@@ -28466,7 +28478,7 @@
         <v>18.651683807373047</v>
       </c>
       <c r="BD65" s="1">
-        <v>48.419754028320312</v>
+        <v>48.419754028320313</v>
       </c>
       <c r="BE65" s="1">
         <v>2.0028033256530762</v>
@@ -28478,7 +28490,7 @@
         <v>69.203742980957031</v>
       </c>
       <c r="BH65" s="1">
-        <v>73.076919555664062</v>
+        <v>73.076919555664063</v>
       </c>
       <c r="BI65" s="1">
         <v>78</v>
@@ -28574,7 +28586,7 @@
         <v>20.897230625152588</v>
       </c>
       <c r="CN65" s="1">
-        <v>77.649917602539062</v>
+        <v>77.649917602539063</v>
       </c>
       <c r="CO65" s="1">
         <v>90</v>
@@ -28679,7 +28691,7 @@
         <v>8.5569920484558555</v>
       </c>
       <c r="DW65" s="1">
-        <v>70.307998657226562</v>
+        <v>70.307998657226563</v>
       </c>
       <c r="DX65" s="1">
         <v>0</v>
@@ -28706,7 +28718,7 @@
         <v>11.161134719848633</v>
       </c>
     </row>
-    <row r="66" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>37340</v>
       </c>
@@ -28720,7 +28732,7 @@
         <v>526</v>
       </c>
       <c r="E66" s="1">
-        <v>46.400283813476562</v>
+        <v>46.400283813476563</v>
       </c>
       <c r="F66" s="1">
         <v>65</v>
@@ -28816,7 +28828,7 @@
         <v>50.132221221923828</v>
       </c>
       <c r="AK66" s="1">
-        <v>21.785171508789062</v>
+        <v>21.785171508789063</v>
       </c>
       <c r="AL66" s="1">
         <v>30.432594299316406</v>
@@ -28958,7 +28970,7 @@
         <v>14.099423408508301</v>
       </c>
       <c r="CK66" s="1">
-        <v>441.76480102539062</v>
+        <v>441.76480102539063</v>
       </c>
       <c r="CL66" s="1">
         <v>4.2359709739685059</v>
@@ -29035,7 +29047,7 @@
         <v>0.95997357368469238</v>
       </c>
       <c r="DL66" s="1">
-        <v>47.239456176757812</v>
+        <v>47.239456176757813</v>
       </c>
       <c r="DM66" s="1"/>
       <c r="DN66" s="1">
@@ -29085,7 +29097,7 @@
       </c>
       <c r="EE66" s="1"/>
     </row>
-    <row r="67" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44700</v>
       </c>
@@ -29120,7 +29132,7 @@
         <v>50.393135070800781</v>
       </c>
       <c r="L67" s="1">
-        <v>88.754898071289062</v>
+        <v>88.754898071289063</v>
       </c>
       <c r="M67" s="1">
         <v>34.281505584716797</v>
@@ -29144,7 +29156,7 @@
         <v>48.014766693115234</v>
       </c>
       <c r="T67" s="1">
-        <v>33.890151977539062</v>
+        <v>33.890151977539063</v>
       </c>
       <c r="U67" s="1">
         <v>30.63502311706543</v>
@@ -29174,7 +29186,7 @@
         <v>36.586200714111328</v>
       </c>
       <c r="AD67" s="1">
-        <v>58.188552856445312</v>
+        <v>58.188552856445313</v>
       </c>
       <c r="AE67" s="1">
         <v>26.866352081298828</v>
@@ -29192,7 +29204,7 @@
         <v>32.913848876953125</v>
       </c>
       <c r="AJ67" s="1">
-        <v>66.251113891601562</v>
+        <v>66.251113891601563</v>
       </c>
       <c r="AK67" s="1">
         <v>10.438726425170898</v>
@@ -29216,7 +29228,7 @@
         <v>80.158737182617188</v>
       </c>
       <c r="AR67" s="1">
-        <v>98.255142211914062</v>
+        <v>98.255142211914063</v>
       </c>
       <c r="AS67" s="1">
         <v>68.363380432128906</v>
@@ -29261,7 +29273,7 @@
         <v>59.102226257324219</v>
       </c>
       <c r="BG67" s="1">
-        <v>79.734390258789062</v>
+        <v>79.734390258789063</v>
       </c>
       <c r="BH67" s="1">
         <v>61.538463592529297</v>
@@ -29306,7 +29318,7 @@
         <v>2.0429842472076416</v>
       </c>
       <c r="BV67" s="1">
-        <v>98.375381469726562</v>
+        <v>98.375381469726563</v>
       </c>
       <c r="BW67" s="1">
         <v>0</v>
@@ -29372,7 +29384,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="CR67" s="1">
-        <v>81.727127075195312</v>
+        <v>81.727127075195313</v>
       </c>
       <c r="CS67" s="1">
         <v>24.839115142822266</v>
@@ -29492,7 +29504,7 @@
         <v>35.51715087890625</v>
       </c>
     </row>
-    <row r="68" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>19100</v>
       </c>
@@ -29611,13 +29623,13 @@
         <v>86.202972412109375</v>
       </c>
       <c r="AN68" s="1">
-        <v>22.473587036132812</v>
+        <v>22.473587036132813</v>
       </c>
       <c r="AO68" s="1">
         <v>42.000007629394531</v>
       </c>
       <c r="AP68" s="1">
-        <v>40.815994262695312</v>
+        <v>40.815994262695313</v>
       </c>
       <c r="AQ68" s="1">
         <v>0</v>
@@ -29641,7 +29653,7 @@
         <v>7.1779994964599609</v>
       </c>
       <c r="AX68" s="1">
-        <v>73.384841918945312</v>
+        <v>73.384841918945313</v>
       </c>
       <c r="AY68" s="1">
         <v>63.275962829589844</v>
@@ -29713,7 +29725,7 @@
         <v>64.615966796875</v>
       </c>
       <c r="BV68" s="1">
-        <v>99.619888305664062</v>
+        <v>99.619888305664063</v>
       </c>
       <c r="BW68" s="1">
         <v>0</v>
@@ -29899,7 +29911,7 @@
         <v>30.630561828613281</v>
       </c>
     </row>
-    <row r="69" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>17820</v>
       </c>
@@ -29940,7 +29952,7 @@
         <v>18.358562469482422</v>
       </c>
       <c r="N69" s="1">
-        <v>39.809219360351562</v>
+        <v>39.809219360351563</v>
       </c>
       <c r="O69" s="1">
         <v>44.216823577880859</v>
@@ -29958,7 +29970,7 @@
         <v>20.341157913208008</v>
       </c>
       <c r="T69" s="1">
-        <v>71.017410278320312</v>
+        <v>71.017410278320313</v>
       </c>
       <c r="U69" s="1">
         <v>36.487613677978516</v>
@@ -29994,7 +30006,7 @@
         <v>31.849214553833008</v>
       </c>
       <c r="AF69" s="1">
-        <v>69.631484985351562</v>
+        <v>69.631484985351563</v>
       </c>
       <c r="AG69" s="1">
         <v>69.335105895996094</v>
@@ -30003,7 +30015,7 @@
         <v>38.773769378662109</v>
       </c>
       <c r="AI69" s="1">
-        <v>43.521621704101562</v>
+        <v>43.521621704101563</v>
       </c>
       <c r="AJ69" s="1">
         <v>64.739959716796875</v>
@@ -30072,10 +30084,10 @@
         <v>50.489109039306641</v>
       </c>
       <c r="BF69" s="1">
-        <v>73.571487426757812</v>
+        <v>73.571487426757813</v>
       </c>
       <c r="BG69" s="1">
-        <v>91.961013793945312</v>
+        <v>91.961013793945313</v>
       </c>
       <c r="BH69" s="1">
         <v>41.025642395019531</v>
@@ -30096,7 +30108,7 @@
         <v>6.6780843734741211</v>
       </c>
       <c r="BN69" s="1">
-        <v>56.451614379882812</v>
+        <v>56.451614379882813</v>
       </c>
       <c r="BO69" s="1">
         <v>97.942283630371094</v>
@@ -30105,7 +30117,7 @@
         <v>34.130405426025391</v>
       </c>
       <c r="BQ69" s="1">
-        <v>39.917007446289062</v>
+        <v>39.917007446289063</v>
       </c>
       <c r="BR69" s="1">
         <v>21.106466293334961</v>
@@ -30114,13 +30126,13 @@
         <v>0</v>
       </c>
       <c r="BT69" s="1">
-        <v>29.201919555664062</v>
+        <v>29.201919555664063</v>
       </c>
       <c r="BU69" s="1">
         <v>87.173301696777344</v>
       </c>
       <c r="BV69" s="1">
-        <v>96.677017211914062</v>
+        <v>96.677017211914063</v>
       </c>
       <c r="BW69" s="1">
         <v>0</v>
@@ -30207,7 +30219,7 @@
         <v>113.33228302001953</v>
       </c>
       <c r="CY69" s="1">
-        <v>12.362564086914062</v>
+        <v>12.362564086914063</v>
       </c>
       <c r="CZ69" s="1">
         <v>34.688106536865234</v>
@@ -30279,7 +30291,7 @@
         <v>12.695188013748909</v>
       </c>
       <c r="DW69" s="1">
-        <v>66.011001586914062</v>
+        <v>66.011001586914063</v>
       </c>
       <c r="DX69" s="1">
         <v>0</v>
@@ -30306,7 +30318,7 @@
         <v>20.559000015258789</v>
       </c>
     </row>
-    <row r="70" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>15380</v>
       </c>
@@ -30437,7 +30449,7 @@
         <v>0</v>
       </c>
       <c r="AR70" s="1">
-        <v>95.247756958007812</v>
+        <v>95.247756958007813</v>
       </c>
       <c r="AS70" s="1">
         <v>76.323333740234375</v>
@@ -30458,7 +30470,7 @@
         <v>18.20140266418457</v>
       </c>
       <c r="AY70" s="1">
-        <v>79.995376586914062</v>
+        <v>79.995376586914063</v>
       </c>
       <c r="AZ70" s="1">
         <v>67.099571228027344</v>
@@ -30485,13 +30497,13 @@
         <v>0</v>
       </c>
       <c r="BH70" s="1">
-        <v>83.333328247070312</v>
+        <v>83.333328247070313</v>
       </c>
       <c r="BI70" s="1">
         <v>86</v>
       </c>
       <c r="BJ70" s="1">
-        <v>8.4605178833007812</v>
+        <v>8.4605178833007813</v>
       </c>
       <c r="BK70" s="1">
         <v>34.960350036621094</v>
@@ -30713,7 +30725,7 @@
         <v>9.6412677764892578</v>
       </c>
     </row>
-    <row r="71" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>33340</v>
       </c>
@@ -30838,7 +30850,7 @@
         <v>31.000003814697266</v>
       </c>
       <c r="AP71" s="1">
-        <v>32.547439575195312</v>
+        <v>32.547439575195313</v>
       </c>
       <c r="AQ71" s="1">
         <v>0</v>
@@ -30898,7 +30910,7 @@
         <v>84</v>
       </c>
       <c r="BJ71" s="1">
-        <v>9.7751541137695312</v>
+        <v>9.7751541137695313</v>
       </c>
       <c r="BK71" s="1">
         <v>60.782508850097656</v>
@@ -31120,7 +31132,7 @@
         <v>19.939786911010742</v>
       </c>
     </row>
-    <row r="72" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>17140</v>
       </c>
@@ -31275,7 +31287,7 @@
         <v>63.715953826904297</v>
       </c>
       <c r="AZ72" s="1">
-        <v>75.757583618164062</v>
+        <v>75.757583618164063</v>
       </c>
       <c r="BA72" s="1">
         <v>61.297046661376953</v>
@@ -31287,7 +31299,7 @@
         <v>38.651676177978516</v>
       </c>
       <c r="BD72" s="1">
-        <v>47.811965942382812</v>
+        <v>47.811965942382813</v>
       </c>
       <c r="BE72" s="1">
         <v>17.299516677856445</v>
@@ -31323,7 +31335,7 @@
         <v>34.980262756347656</v>
       </c>
       <c r="BP72" s="1">
-        <v>71.635940551757812</v>
+        <v>71.635940551757813</v>
       </c>
       <c r="BQ72" s="1">
         <v>0</v>
@@ -31527,7 +31539,7 @@
         <v>10.701251029968262</v>
       </c>
     </row>
-    <row r="73" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>40140</v>
       </c>
@@ -31562,7 +31574,7 @@
         <v>24.312795639038086</v>
       </c>
       <c r="L73" s="1">
-        <v>78.944168090820312</v>
+        <v>78.944168090820313</v>
       </c>
       <c r="M73" s="1">
         <v>36.156784057617188</v>
@@ -31580,10 +31592,10 @@
         <v>33.616737365722656</v>
       </c>
       <c r="R73" s="1">
-        <v>55.950881958007812</v>
+        <v>55.950881958007813</v>
       </c>
       <c r="S73" s="1">
-        <v>41.731460571289062</v>
+        <v>41.731460571289063</v>
       </c>
       <c r="T73" s="1">
         <v>67.053741455078125</v>
@@ -31634,7 +31646,7 @@
         <v>54.986701965332031</v>
       </c>
       <c r="AJ73" s="1">
-        <v>60.710220336914062</v>
+        <v>60.710220336914063</v>
       </c>
       <c r="AK73" s="1">
         <v>6.8078665733337402</v>
@@ -31748,7 +31760,7 @@
         <v>84.02264404296875</v>
       </c>
       <c r="BV73" s="1">
-        <v>98.905715942382812</v>
+        <v>98.905715942382813</v>
       </c>
       <c r="BW73" s="1">
         <v>0</v>
@@ -31934,7 +31946,7 @@
         <v>55.703647613525391</v>
       </c>
     </row>
-    <row r="74" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>17460</v>
       </c>
@@ -31969,7 +31981,7 @@
         <v>17.163978576660156</v>
       </c>
       <c r="L74" s="1">
-        <v>88.813796997070312</v>
+        <v>88.813796997070313</v>
       </c>
       <c r="M74" s="1">
         <v>18.259929656982422</v>
@@ -31981,7 +31993,7 @@
         <v>39.682403564453125</v>
       </c>
       <c r="P74" s="1">
-        <v>36.984146118164062</v>
+        <v>36.984146118164063</v>
       </c>
       <c r="Q74" s="1">
         <v>52.08892822265625</v>
@@ -32053,7 +32065,7 @@
         <v>81.162582397460938</v>
       </c>
       <c r="AN74" s="1">
-        <v>13.115676879882812</v>
+        <v>13.115676879882813</v>
       </c>
       <c r="AO74" s="1">
         <v>24.750003814697266</v>
@@ -32110,7 +32122,7 @@
         <v>32.400535583496094</v>
       </c>
       <c r="BG74" s="1">
-        <v>11.960708618164062</v>
+        <v>11.960708618164063</v>
       </c>
       <c r="BH74" s="1">
         <v>100</v>
@@ -32122,7 +32134,7 @@
         <v>8.1847019195556641</v>
       </c>
       <c r="BK74" s="1">
-        <v>48.021194458007812</v>
+        <v>48.021194458007813</v>
       </c>
       <c r="BL74" s="1">
         <v>99.142852783203125</v>
@@ -32152,7 +32164,7 @@
         <v>16.288242340087891</v>
       </c>
       <c r="BU74" s="1">
-        <v>54.574234008789062</v>
+        <v>54.574234008789063</v>
       </c>
       <c r="BV74" s="1">
         <v>98.168724060058594</v>
@@ -32164,7 +32176,7 @@
         <v>38.186264038085938</v>
       </c>
       <c r="BY74" s="1">
-        <v>44.409683227539062</v>
+        <v>44.409683227539063</v>
       </c>
       <c r="BZ74" s="1">
         <v>63.280563354492188</v>
@@ -32329,19 +32341,19 @@
         <v>5.0286870002746582</v>
       </c>
       <c r="EB74" s="1">
-        <v>242.56021118164062</v>
+        <v>242.56021118164063</v>
       </c>
       <c r="EC74" s="1">
         <v>267.07333374023438</v>
       </c>
       <c r="ED74" s="1">
-        <v>8.6920852661132812</v>
+        <v>8.6920852661132813</v>
       </c>
       <c r="EE74" s="1">
         <v>15.886979103088379</v>
       </c>
     </row>
-    <row r="75" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>27260</v>
       </c>
@@ -32460,7 +32472,7 @@
         <v>46.440525054931641</v>
       </c>
       <c r="AN75" s="1">
-        <v>69.661392211914062</v>
+        <v>69.661392211914063</v>
       </c>
       <c r="AO75" s="1">
         <v>39.500007629394531</v>
@@ -32514,13 +32526,13 @@
         <v>13.05721378326416</v>
       </c>
       <c r="BF75" s="1">
-        <v>66.205703735351562</v>
+        <v>66.205703735351563</v>
       </c>
       <c r="BG75" s="1">
         <v>70.884307861328125</v>
       </c>
       <c r="BH75" s="1">
-        <v>73.076919555664062</v>
+        <v>73.076919555664063</v>
       </c>
       <c r="BI75" s="1">
         <v>79</v>
@@ -32569,7 +32581,7 @@
         <v>32.879608154296875</v>
       </c>
       <c r="BY75" s="1">
-        <v>49.624649047851562</v>
+        <v>49.624649047851563</v>
       </c>
       <c r="BZ75" s="1">
         <v>73.865852355957031</v>
@@ -32635,7 +32647,7 @@
         <v>75.8</v>
       </c>
       <c r="CU75" s="1">
-        <v>44.067459106445312</v>
+        <v>44.067459106445313</v>
       </c>
       <c r="CV75" s="2">
         <v>20</v>
@@ -32744,7 +32756,7 @@
         <v>11.307165145874023</v>
       </c>
     </row>
-    <row r="76" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>24860</v>
       </c>
@@ -32903,7 +32915,7 @@
         <v>46.201812744140625</v>
       </c>
       <c r="BB76" s="1">
-        <v>43.988296508789062</v>
+        <v>43.988296508789063</v>
       </c>
       <c r="BC76" s="1">
         <v>22.47191047668457</v>
@@ -33135,7 +33147,7 @@
       </c>
       <c r="EE76" s="1"/>
     </row>
-    <row r="77" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>19380</v>
       </c>
@@ -33203,7 +33215,7 @@
         <v>41.833812713623047</v>
       </c>
       <c r="W77" s="1">
-        <v>43.356643676757812</v>
+        <v>43.356643676757813</v>
       </c>
       <c r="X77" s="1">
         <v>64.285713195800781</v>
@@ -33293,7 +33305,7 @@
         <v>38.961040496826172</v>
       </c>
       <c r="BA77" s="1">
-        <v>69.996109008789062</v>
+        <v>69.996109008789063</v>
       </c>
       <c r="BB77" s="1">
         <v>19.371696472167969</v>
@@ -33302,13 +33314,13 @@
         <v>34.157295227050781</v>
       </c>
       <c r="BD77" s="1">
-        <v>56.928665161132812</v>
+        <v>56.928665161132813</v>
       </c>
       <c r="BE77" s="1">
         <v>9.9634132385253906</v>
       </c>
       <c r="BF77" s="1">
-        <v>28.262039184570312</v>
+        <v>28.262039184570313</v>
       </c>
       <c r="BG77" s="1">
         <v>28.520452499389648</v>
@@ -33332,7 +33344,7 @@
         <v>28.253423690795898</v>
       </c>
       <c r="BN77" s="1">
-        <v>56.451614379882812</v>
+        <v>56.451614379882813</v>
       </c>
       <c r="BO77" s="1">
         <v>96.916427612304688</v>
@@ -33534,7 +33546,7 @@
         <v>-11.602908134460449</v>
       </c>
     </row>
-    <row r="78" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>36740</v>
       </c>
@@ -33605,7 +33617,7 @@
         <v>41.958038330078125</v>
       </c>
       <c r="X78" s="1">
-        <v>58.571426391601562</v>
+        <v>58.571426391601563</v>
       </c>
       <c r="Y78" s="1">
         <v>0</v>
@@ -33836,13 +33848,13 @@
         <v>28.571428571428569</v>
       </c>
       <c r="CW78" s="1">
-        <v>46.642410278320312</v>
+        <v>46.642410278320313</v>
       </c>
       <c r="CX78" s="1">
         <v>98.551750183105469</v>
       </c>
       <c r="CY78" s="1">
-        <v>-21.110000610351562</v>
+        <v>-21.110000610351563</v>
       </c>
       <c r="CZ78" s="1">
         <v>35.207782745361328</v>
@@ -33932,7 +33944,7 @@
         <v>957.34527587890625</v>
       </c>
       <c r="EC78" s="1">
-        <v>176.56265258789062</v>
+        <v>176.56265258789063</v>
       </c>
       <c r="ED78" s="1">
         <v>5.1783633232116699</v>
@@ -33941,7 +33953,7 @@
         <v>18.017757415771484</v>
       </c>
     </row>
-    <row r="79" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>42540</v>
       </c>
@@ -34033,7 +34045,7 @@
         <v>49.624889373779297</v>
       </c>
       <c r="AE79" s="1">
-        <v>43.341384887695312</v>
+        <v>43.341384887695313</v>
       </c>
       <c r="AF79" s="1">
         <v>25.051727294921875</v>
@@ -34079,7 +34091,7 @@
         <v>85.006233215332031</v>
       </c>
       <c r="AU79" s="1">
-        <v>39.569046020507812</v>
+        <v>39.569046020507813</v>
       </c>
       <c r="AV79" s="1">
         <v>1.2022221088409424</v>
@@ -34118,7 +34130,7 @@
         <v>33.274257659912109</v>
       </c>
       <c r="BH79" s="1">
-        <v>71.794876098632812</v>
+        <v>71.794876098632813</v>
       </c>
       <c r="BI79" s="1">
         <v>83</v>
@@ -34332,7 +34344,7 @@
       </c>
       <c r="EE79" s="1"/>
     </row>
-    <row r="80" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>30780</v>
       </c>
@@ -34391,7 +34403,7 @@
         <v>28.274879455566406</v>
       </c>
       <c r="T80" s="1">
-        <v>98.275283813476562</v>
+        <v>98.275283813476563</v>
       </c>
       <c r="U80" s="1">
         <v>26.664264678955078</v>
@@ -34475,7 +34487,7 @@
         <v>0.50927793979644775</v>
       </c>
       <c r="AV80" s="1">
-        <v>9.4473953247070312</v>
+        <v>9.4473953247070313</v>
       </c>
       <c r="AW80" s="1">
         <v>24.176765441894531</v>
@@ -34490,7 +34502,7 @@
         <v>67.099571228027344</v>
       </c>
       <c r="BA80" s="1">
-        <v>67.350357055664062</v>
+        <v>67.350357055664063</v>
       </c>
       <c r="BB80" s="1">
         <v>1.9603935480117798</v>
@@ -34511,7 +34523,7 @@
         <v>66.597190856933594</v>
       </c>
       <c r="BH80" s="1">
-        <v>52.564102172851562</v>
+        <v>52.564102172851563</v>
       </c>
       <c r="BI80" s="1">
         <v>81</v>
@@ -34532,7 +34544,7 @@
         <v>69.354835510253906</v>
       </c>
       <c r="BO80" s="1">
-        <v>98.737869262695312</v>
+        <v>98.737869262695313</v>
       </c>
       <c r="BP80" s="1">
         <v>57.334815979003906</v>
@@ -34549,7 +34561,7 @@
       <c r="BT80" s="1"/>
       <c r="BU80" s="1"/>
       <c r="BV80" s="1">
-        <v>98.275283813476562</v>
+        <v>98.275283813476563</v>
       </c>
       <c r="BW80" s="1">
         <v>29.878261566162109</v>
@@ -34731,7 +34743,7 @@
         <v>25.668987274169922</v>
       </c>
     </row>
-    <row r="81" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>21340</v>
       </c>
@@ -34745,7 +34757,7 @@
         <v>541</v>
       </c>
       <c r="E81" s="1">
-        <v>42.981460571289062</v>
+        <v>42.981460571289063</v>
       </c>
       <c r="F81" s="1">
         <v>80</v>
@@ -34793,13 +34805,13 @@
         <v>89.453849792480469</v>
       </c>
       <c r="U81" s="1">
-        <v>53.474075317382812</v>
+        <v>53.474075317382813</v>
       </c>
       <c r="V81" s="1">
         <v>0</v>
       </c>
       <c r="W81" s="1">
-        <v>14.685317993164062</v>
+        <v>14.685317993164063</v>
       </c>
       <c r="X81" s="1">
         <v>20.000001907348633</v>
@@ -34817,7 +34829,7 @@
         <v>47.344093322753906</v>
       </c>
       <c r="AC81" s="1">
-        <v>38.639419555664062</v>
+        <v>38.639419555664063</v>
       </c>
       <c r="AD81" s="1">
         <v>74.297950744628906</v>
@@ -34865,10 +34877,10 @@
         <v>0</v>
       </c>
       <c r="AS81" s="1">
-        <v>70.275405883789062</v>
+        <v>70.275405883789063</v>
       </c>
       <c r="AT81" s="1">
-        <v>86.308303833007812</v>
+        <v>86.308303833007813</v>
       </c>
       <c r="AU81" s="1">
         <v>46.766643524169922</v>
@@ -34946,19 +34958,19 @@
         <v>0</v>
       </c>
       <c r="BT81" s="1">
-        <v>70.171707153320312</v>
+        <v>70.171707153320313</v>
       </c>
       <c r="BU81" s="1">
         <v>100</v>
       </c>
       <c r="BV81" s="1">
-        <v>98.189834594726562</v>
+        <v>98.189834594726563</v>
       </c>
       <c r="BW81" s="1">
         <v>0</v>
       </c>
       <c r="BX81" s="1">
-        <v>46.266860961914062</v>
+        <v>46.266860961914063</v>
       </c>
       <c r="BY81" s="1">
         <v>91.962638854980469</v>
@@ -35021,7 +35033,7 @@
         <v>85.734101921319962</v>
       </c>
       <c r="CS81" s="1">
-        <v>21.066970825195312</v>
+        <v>21.066970825195313</v>
       </c>
       <c r="CT81" s="1">
         <v>72.599999999999994</v>
@@ -35129,7 +35141,7 @@
         <v>852.25872802734375</v>
       </c>
       <c r="EC81" s="1">
-        <v>232.16018676757812</v>
+        <v>232.16018676757813</v>
       </c>
       <c r="ED81" s="1">
         <v>2.1878173351287842</v>
@@ -35138,7 +35150,7 @@
         <v>10.527963638305664</v>
       </c>
     </row>
-    <row r="82" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>41180</v>
       </c>
@@ -35245,7 +35257,7 @@
         <v>23.628063201904297</v>
       </c>
       <c r="AJ82" s="1">
-        <v>68.265945434570312</v>
+        <v>68.265945434570313</v>
       </c>
       <c r="AK82" s="1">
         <v>33.585472106933594</v>
@@ -35278,7 +35290,7 @@
         <v>83.258033752441406</v>
       </c>
       <c r="AU82" s="1">
-        <v>41.805007934570312</v>
+        <v>41.805007934570313</v>
       </c>
       <c r="AV82" s="1">
         <v>44.494071960449219</v>
@@ -35305,7 +35317,7 @@
         <v>33.033702850341797</v>
       </c>
       <c r="BD82" s="1">
-        <v>47.811965942382812</v>
+        <v>47.811965942382813</v>
       </c>
       <c r="BE82" s="1">
         <v>27.908903121948242</v>
@@ -35545,7 +35557,7 @@
         <v>15.741888046264648</v>
       </c>
     </row>
-    <row r="83" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>23420</v>
       </c>
@@ -35589,7 +35601,7 @@
         <v>29.16789436340332</v>
       </c>
       <c r="O83" s="1">
-        <v>9.9561233520507812</v>
+        <v>9.9561233520507813</v>
       </c>
       <c r="P83" s="1">
         <v>46.388591766357422</v>
@@ -35631,7 +35643,7 @@
         <v>73.509307861328125</v>
       </c>
       <c r="AC83" s="1">
-        <v>44.799087524414062</v>
+        <v>44.799087524414063</v>
       </c>
       <c r="AD83" s="1">
         <v>46.798915863037109</v>
@@ -35640,7 +35652,7 @@
         <v>19.395145416259766</v>
       </c>
       <c r="AF83" s="1">
-        <v>53.456802368164062</v>
+        <v>53.456802368164063</v>
       </c>
       <c r="AG83" s="1">
         <v>39.601543426513672</v>
@@ -35670,7 +35682,7 @@
         <v>43.500003814697266</v>
       </c>
       <c r="AP83" s="1">
-        <v>54.013992309570312</v>
+        <v>54.013992309570313</v>
       </c>
       <c r="AQ83" s="1">
         <v>0</v>
@@ -35724,7 +35736,7 @@
         <v>57.145072937011719</v>
       </c>
       <c r="BH83" s="1">
-        <v>42.307693481445312</v>
+        <v>42.307693481445313</v>
       </c>
       <c r="BI83" s="1">
         <v>11.999998092651367</v>
@@ -35952,7 +35964,7 @@
         <v>34.431293487548828</v>
       </c>
     </row>
-    <row r="84" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>17900</v>
       </c>
@@ -36011,7 +36023,7 @@
         <v>25.421169281005859</v>
       </c>
       <c r="T84" s="1">
-        <v>98.433120727539062</v>
+        <v>98.433120727539063</v>
       </c>
       <c r="U84" s="1">
         <v>50.705726623535156</v>
@@ -36128,10 +36140,10 @@
         <v>25.426143646240234</v>
       </c>
       <c r="BG84" s="1">
-        <v>87.666091918945312</v>
+        <v>87.666091918945313</v>
       </c>
       <c r="BH84" s="1">
-        <v>62.820510864257812</v>
+        <v>62.820510864257813</v>
       </c>
       <c r="BI84" s="1">
         <v>82</v>
@@ -36169,7 +36181,7 @@
       <c r="BT84" s="1"/>
       <c r="BU84" s="1"/>
       <c r="BV84" s="1">
-        <v>98.433120727539062</v>
+        <v>98.433120727539063</v>
       </c>
       <c r="BW84" s="1">
         <v>0</v>
@@ -36351,7 +36363,7 @@
         <v>-5.22027587890625</v>
       </c>
     </row>
-    <row r="85" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>40060</v>
       </c>
@@ -36395,7 +36407,7 @@
         <v>57.791103363037109</v>
       </c>
       <c r="O85" s="1">
-        <v>33.197525024414062</v>
+        <v>33.197525024414063</v>
       </c>
       <c r="P85" s="1">
         <v>61.572196960449219</v>
@@ -36530,7 +36542,7 @@
         <v>83.734359741210938</v>
       </c>
       <c r="BH85" s="1">
-        <v>92.307693481445312</v>
+        <v>92.307693481445313</v>
       </c>
       <c r="BI85" s="1">
         <v>83</v>
@@ -36749,7 +36761,7 @@
         <v>552.594482421875</v>
       </c>
       <c r="EC85" s="1">
-        <v>225.85671997070312</v>
+        <v>225.85671997070313</v>
       </c>
       <c r="ED85" s="1">
         <v>9.2966089248657227</v>
@@ -36758,7 +36770,7 @@
         <v>43.410999298095703</v>
       </c>
     </row>
-    <row r="86" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>16860</v>
       </c>
@@ -36929,7 +36941,7 @@
         <v>17.471807479858398</v>
       </c>
       <c r="BF86" s="1">
-        <v>29.292800903320312</v>
+        <v>29.292800903320313</v>
       </c>
       <c r="BG86" s="1">
         <v>60.88916015625</v>
@@ -36950,7 +36962,7 @@
         <v>100</v>
       </c>
       <c r="BM86" s="1">
-        <v>19.349319458007812</v>
+        <v>19.349319458007813</v>
       </c>
       <c r="BN86" s="1">
         <v>64.516136169433594</v>
@@ -36982,7 +36994,7 @@
         <v>38.213314056396484</v>
       </c>
       <c r="BY86" s="1">
-        <v>43.255325317382812</v>
+        <v>43.255325317382813</v>
       </c>
       <c r="BZ86" s="1">
         <v>92.076202392578125</v>
@@ -37138,13 +37150,13 @@
       <c r="DY86" s="1"/>
       <c r="DZ86" s="1"/>
       <c r="EA86" s="1">
-        <v>68.768203735351562</v>
+        <v>68.768203735351563</v>
       </c>
       <c r="EB86" s="1">
         <v>1169.296630859375</v>
       </c>
       <c r="EC86" s="1">
-        <v>266.95645141601562</v>
+        <v>266.95645141601563</v>
       </c>
       <c r="ED86" s="1">
         <v>8.8499774932861328</v>
@@ -37153,7 +37165,7 @@
         <v>3.4282996654510498</v>
       </c>
     </row>
-    <row r="87" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>26420</v>
       </c>
@@ -37167,7 +37179,7 @@
         <v>547</v>
       </c>
       <c r="E87" s="1">
-        <v>41.900161743164062</v>
+        <v>41.900161743164063</v>
       </c>
       <c r="F87" s="1">
         <v>86</v>
@@ -37215,7 +37227,7 @@
         <v>78.323974609375</v>
       </c>
       <c r="U87" s="1">
-        <v>26.099746704101562</v>
+        <v>26.099746704101563</v>
       </c>
       <c r="V87" s="1">
         <v>41.260749816894531</v>
@@ -37320,7 +37332,7 @@
         <v>30.786510467529297</v>
       </c>
       <c r="BD87" s="1">
-        <v>23.095596313476562</v>
+        <v>23.095596313476563</v>
       </c>
       <c r="BE87" s="1">
         <v>64.905342102050781</v>
@@ -37374,7 +37386,7 @@
         <v>85.402366638183594</v>
       </c>
       <c r="BV87" s="1">
-        <v>98.453079223632812</v>
+        <v>98.453079223632813</v>
       </c>
       <c r="BW87" s="1">
         <v>0</v>
@@ -37443,7 +37455,7 @@
         <v>88.572027653455734</v>
       </c>
       <c r="CS87" s="1">
-        <v>38.160171508789062</v>
+        <v>38.160171508789063</v>
       </c>
       <c r="CT87" s="1">
         <v>72.900000000000006</v>
@@ -37560,7 +37572,7 @@
         <v>30.043066024780273</v>
       </c>
     </row>
-    <row r="88" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>31140</v>
       </c>
@@ -37722,10 +37734,10 @@
         <v>15.264187812805176</v>
       </c>
       <c r="BC88" s="1">
-        <v>26.516860961914062</v>
+        <v>26.516860961914063</v>
       </c>
       <c r="BD88" s="1">
-        <v>52.978103637695312</v>
+        <v>52.978103637695313</v>
       </c>
       <c r="BE88" s="1">
         <v>16.155797958374023</v>
@@ -37734,7 +37746,7 @@
         <v>78.028190612792969</v>
       </c>
       <c r="BG88" s="1">
-        <v>64.872512817382812</v>
+        <v>64.872512817382813</v>
       </c>
       <c r="BH88" s="1">
         <v>100</v>
@@ -37934,7 +37946,7 @@
         <v>28.147909616024801</v>
       </c>
       <c r="DW88" s="1">
-        <v>67.307998657226562</v>
+        <v>67.307998657226563</v>
       </c>
       <c r="DX88" s="1">
         <v>1</v>
@@ -37952,14 +37964,14 @@
         <v>1093.70166015625</v>
       </c>
       <c r="EC88" s="1">
-        <v>386.64981079101562</v>
+        <v>386.64981079101563</v>
       </c>
       <c r="ED88" s="1">
         <v>10.836289405822754</v>
       </c>
       <c r="EE88" s="1"/>
     </row>
-    <row r="89" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>13820</v>
       </c>
@@ -38012,7 +38024,7 @@
         <v>43.591602325439453</v>
       </c>
       <c r="R89" s="1">
-        <v>74.854934692382812</v>
+        <v>74.854934692382813</v>
       </c>
       <c r="S89" s="1">
         <v>0.88654500246047974</v>
@@ -38024,13 +38036,13 @@
         <v>29.55897331237793</v>
       </c>
       <c r="V89" s="1">
-        <v>37.249282836914062</v>
+        <v>37.249282836914063</v>
       </c>
       <c r="W89" s="1">
         <v>42.657344818115234</v>
       </c>
       <c r="X89" s="1">
-        <v>58.571426391601562</v>
+        <v>58.571426391601563</v>
       </c>
       <c r="Y89" s="1">
         <v>0</v>
@@ -38215,7 +38227,7 @@
         <v>33.88845032453537</v>
       </c>
       <c r="CI89" s="1">
-        <v>10.733901977539062</v>
+        <v>10.733901977539063</v>
       </c>
       <c r="CJ89" s="1">
         <v>14.702433586120605</v>
@@ -38358,7 +38370,7 @@
         <v>-2.0440976619720459</v>
       </c>
     </row>
-    <row r="90" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>26900</v>
       </c>
@@ -38390,7 +38402,7 @@
         <v>39.888690948486328</v>
       </c>
       <c r="K90" s="1">
-        <v>33.744338989257812</v>
+        <v>33.744338989257813</v>
       </c>
       <c r="L90" s="1">
         <v>90.927772521972656</v>
@@ -38562,7 +38574,7 @@
         <v>57.204906463623047</v>
       </c>
       <c r="BQ90" s="1">
-        <v>36.065811157226562</v>
+        <v>36.065811157226563</v>
       </c>
       <c r="BR90" s="1">
         <v>22.277397155761719</v>
@@ -38617,7 +38629,7 @@
         <v>8.5675697326660156</v>
       </c>
       <c r="CJ90" s="1">
-        <v>9.7919998168945312</v>
+        <v>9.7919998168945313</v>
       </c>
       <c r="CK90" s="1">
         <v>432.73341727256775</v>
@@ -38660,7 +38672,7 @@
         <v>76.079383850097656</v>
       </c>
       <c r="CY90" s="1">
-        <v>-18.304275512695312</v>
+        <v>-18.304275512695313</v>
       </c>
       <c r="CZ90" s="1">
         <v>34.195537567138672</v>
@@ -38757,7 +38769,7 @@
       </c>
       <c r="EE90" s="1"/>
     </row>
-    <row r="91" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>28940</v>
       </c>
@@ -38828,7 +38840,7 @@
         <v>37.762241363525391</v>
       </c>
       <c r="X91" s="1">
-        <v>58.571426391601562</v>
+        <v>58.571426391601563</v>
       </c>
       <c r="Y91" s="1">
         <v>0</v>
@@ -38840,7 +38852,7 @@
         <v>27.518829345703125</v>
       </c>
       <c r="AB91" s="1">
-        <v>8.9192581176757812</v>
+        <v>8.9192581176757813</v>
       </c>
       <c r="AC91" s="1">
         <v>19.529972076416016</v>
@@ -38864,7 +38876,7 @@
         <v>1.8339341878890991</v>
       </c>
       <c r="AJ91" s="1">
-        <v>57.687942504882812</v>
+        <v>57.687942504882813</v>
       </c>
       <c r="AK91" s="1">
         <v>0.90771329402923584</v>
@@ -38888,7 +38900,7 @@
         <v>16.666667938232422</v>
       </c>
       <c r="AR91" s="1">
-        <v>90.189407348632812</v>
+        <v>90.189407348632813</v>
       </c>
       <c r="AS91" s="1">
         <v>72.517799377441406</v>
@@ -39156,7 +39168,7 @@
         <v>16.871183395385742</v>
       </c>
     </row>
-    <row r="92" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>36420</v>
       </c>
@@ -39218,13 +39230,13 @@
         <v>63.393409729003906</v>
       </c>
       <c r="U92" s="1">
-        <v>25.977432250976562</v>
+        <v>25.977432250976563</v>
       </c>
       <c r="V92" s="1">
         <v>41.260749816894531</v>
       </c>
       <c r="W92" s="1">
-        <v>41.258743286132812</v>
+        <v>41.258743286132813</v>
       </c>
       <c r="X92" s="1">
         <v>54.285709381103516</v>
@@ -39242,7 +39254,7 @@
         <v>42.925437927246094</v>
       </c>
       <c r="AC92" s="1">
-        <v>20.994216918945312</v>
+        <v>20.994216918945313</v>
       </c>
       <c r="AD92" s="1">
         <v>39.153148651123047</v>
@@ -39266,13 +39278,13 @@
         <v>37.035640716552734</v>
       </c>
       <c r="AK92" s="1">
-        <v>9.0771560668945312</v>
+        <v>9.0771560668945313</v>
       </c>
       <c r="AL92" s="1">
-        <v>46.277664184570312</v>
+        <v>46.277664184570313</v>
       </c>
       <c r="AM92" s="1">
-        <v>34.331863403320312</v>
+        <v>34.331863403320313</v>
       </c>
       <c r="AN92" s="1">
         <v>32.102458953857422</v>
@@ -39285,7 +39297,7 @@
       </c>
       <c r="AQ92" s="1"/>
       <c r="AR92" s="1">
-        <v>73.003616333007812</v>
+        <v>73.003616333007813</v>
       </c>
       <c r="AS92" s="1">
         <v>82.5435791015625</v>
@@ -39303,7 +39315,7 @@
         <v>35.158214569091797</v>
       </c>
       <c r="AX92" s="1">
-        <v>50.826187133789062</v>
+        <v>50.826187133789063</v>
       </c>
       <c r="AY92" s="1">
         <v>57.922821044921875</v>
@@ -39464,7 +39476,7 @@
         <v>31.64335823059082</v>
       </c>
       <c r="DA92" s="1">
-        <v>5.9981155395507812</v>
+        <v>5.9981155395507813</v>
       </c>
       <c r="DB92" s="1">
         <v>15.629584312438965</v>
@@ -39545,7 +39557,7 @@
         <v>-17.942222595214844</v>
       </c>
       <c r="EB92" s="1">
-        <v>447.34512329101562</v>
+        <v>447.34512329101563</v>
       </c>
       <c r="EC92" s="1">
         <v>367.859375</v>
@@ -39555,7 +39567,7 @@
       </c>
       <c r="EE92" s="1"/>
     </row>
-    <row r="93" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>48620</v>
       </c>
@@ -39602,7 +39614,7 @@
         <v>28.494796752929688</v>
       </c>
       <c r="P93" s="1">
-        <v>45.799758911132812</v>
+        <v>45.799758911132813</v>
       </c>
       <c r="Q93" s="1">
         <v>45.080821990966797</v>
@@ -39626,7 +39638,7 @@
         <v>46.8531494140625</v>
       </c>
       <c r="X93" s="1">
-        <v>58.571426391601562</v>
+        <v>58.571426391601563</v>
       </c>
       <c r="Y93" s="1">
         <v>0</v>
@@ -39638,7 +39650,7 @@
         <v>23.137020111083984</v>
       </c>
       <c r="AB93" s="1">
-        <v>23.317886352539062</v>
+        <v>23.317886352539063</v>
       </c>
       <c r="AC93" s="1">
         <v>8.6174955368041992</v>
@@ -39653,7 +39665,7 @@
         <v>32.481498718261719</v>
       </c>
       <c r="AG93" s="1">
-        <v>71.832290649414062</v>
+        <v>71.832290649414063</v>
       </c>
       <c r="AH93" s="1">
         <v>72.792526245117188</v>
@@ -39671,7 +39683,7 @@
         <v>42.002017974853516</v>
       </c>
       <c r="AM93" s="1">
-        <v>43.878860473632812</v>
+        <v>43.878860473632813</v>
       </c>
       <c r="AN93" s="1">
         <v>28.262762069702148</v>
@@ -39707,7 +39719,7 @@
         <v>20.409008026123047</v>
       </c>
       <c r="AY93" s="1">
-        <v>67.455825805664062</v>
+        <v>67.455825805664063</v>
       </c>
       <c r="AZ93" s="1">
         <v>56.277061462402344</v>
@@ -39788,7 +39800,7 @@
         <v>63.426845550537109</v>
       </c>
       <c r="BZ93" s="1">
-        <v>48.580886840820312</v>
+        <v>48.580886840820313</v>
       </c>
       <c r="CA93" s="1">
         <v>13.4</v>
@@ -39962,7 +39974,7 @@
         <v>22.246921539306641</v>
       </c>
     </row>
-    <row r="94" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45780</v>
       </c>
@@ -40018,7 +40030,7 @@
         <v>67.695182800292969</v>
       </c>
       <c r="S94" s="1">
-        <v>19.860488891601562</v>
+        <v>19.860488891601563</v>
       </c>
       <c r="T94" s="1">
         <v>53.233776092529297</v>
@@ -40096,7 +40108,7 @@
         <v>0</v>
       </c>
       <c r="AS94" s="1">
-        <v>78.421279907226562</v>
+        <v>78.421279907226563</v>
       </c>
       <c r="AT94" s="1">
         <v>0</v>
@@ -40162,7 +40174,7 @@
         <v>58.064521789550781</v>
       </c>
       <c r="BO94" s="1">
-        <v>90.993728637695312</v>
+        <v>90.993728637695313</v>
       </c>
       <c r="BP94" s="1">
         <v>54.027305603027344</v>
@@ -40186,7 +40198,7 @@
         <v>96.125907897949219</v>
       </c>
       <c r="BW94" s="1">
-        <v>64.265029907226562</v>
+        <v>64.265029907226563</v>
       </c>
       <c r="BX94" s="1">
         <v>53.351551055908203</v>
@@ -40228,7 +40240,7 @@
         <v>9.7345409393310547</v>
       </c>
       <c r="CK94" s="1">
-        <v>474.72659301757812</v>
+        <v>474.72659301757813</v>
       </c>
       <c r="CL94" s="1">
         <v>4.1511853337287903</v>
@@ -40270,7 +40282,7 @@
         <v>71.87725830078125</v>
       </c>
       <c r="CY94" s="1">
-        <v>292.61001586914062</v>
+        <v>292.61001586914063</v>
       </c>
       <c r="CZ94" s="1">
         <v>28.004371643066406</v>
@@ -40294,7 +40306,7 @@
         <v>12.139100074768066</v>
       </c>
       <c r="DG94" s="1">
-        <v>4.6835403442382812</v>
+        <v>4.6835403442382813</v>
       </c>
       <c r="DH94" s="1">
         <v>70.2</v>
@@ -40369,7 +40381,7 @@
         <v>1.2245742082595825</v>
       </c>
     </row>
-    <row r="95" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>46140</v>
       </c>
@@ -40404,7 +40416,7 @@
         <v>53.334041595458984</v>
       </c>
       <c r="L95" s="1">
-        <v>76.563613891601562</v>
+        <v>76.563613891601563</v>
       </c>
       <c r="M95" s="1">
         <v>26.129695892333984</v>
@@ -40569,7 +40581,7 @@
         <v>64.516136169433594</v>
       </c>
       <c r="BO95" s="1">
-        <v>80.108108520507812</v>
+        <v>80.108108520507813</v>
       </c>
       <c r="BP95" s="1">
         <v>53.723567962646484</v>
@@ -40683,7 +40695,7 @@
         <v>31.629331588745117</v>
       </c>
       <c r="DA95" s="1">
-        <v>5.9981155395507812</v>
+        <v>5.9981155395507813</v>
       </c>
       <c r="DB95" s="1">
         <v>15.629584312438965</v>
@@ -40749,7 +40761,7 @@
         <v>32.875670407843472</v>
       </c>
       <c r="DW95" s="1">
-        <v>64.175003051757812</v>
+        <v>64.175003051757813</v>
       </c>
       <c r="DX95" s="1">
         <v>0</v>
@@ -40767,7 +40779,7 @@
         <v>367.49810791015625</v>
       </c>
       <c r="EC95" s="1">
-        <v>427.60403442382812</v>
+        <v>427.60403442382813</v>
       </c>
       <c r="ED95" s="1">
         <v>8.2773284912109375</v>
@@ -40776,7 +40788,7 @@
         <v>34.652091979980469</v>
       </c>
     </row>
-    <row r="96" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>29460</v>
       </c>
@@ -40835,7 +40847,7 @@
         <v>10.740543365478516</v>
       </c>
       <c r="T96" s="1">
-        <v>98.467483520507812</v>
+        <v>98.467483520507813</v>
       </c>
       <c r="U96" s="1">
         <v>26.981267929077148</v>
@@ -40874,7 +40886,7 @@
         <v>21.337614059448242</v>
       </c>
       <c r="AG96" s="1">
-        <v>31.922561645507812</v>
+        <v>31.922561645507813</v>
       </c>
       <c r="AH96" s="1">
         <v>58.252288818359375</v>
@@ -40905,7 +40917,7 @@
       </c>
       <c r="AQ96" s="1"/>
       <c r="AR96" s="1">
-        <v>83.430007934570312</v>
+        <v>83.430007934570313</v>
       </c>
       <c r="AS96" s="1">
         <v>73.7095947265625</v>
@@ -40923,7 +40935,7 @@
         <v>9.9594020843505859</v>
       </c>
       <c r="AX96" s="1">
-        <v>35.333206176757812</v>
+        <v>35.333206176757813</v>
       </c>
       <c r="AY96" s="1">
         <v>62.322669982910156</v>
@@ -40972,7 +40984,7 @@
         <v>53.225811004638672</v>
       </c>
       <c r="BO96" s="1">
-        <v>89.726638793945312</v>
+        <v>89.726638793945313</v>
       </c>
       <c r="BP96" s="1">
         <v>55.772071838378906</v>
@@ -40989,7 +41001,7 @@
       <c r="BT96" s="1"/>
       <c r="BU96" s="1"/>
       <c r="BV96" s="1">
-        <v>98.467483520507812</v>
+        <v>98.467483520507813</v>
       </c>
       <c r="BW96" s="1">
         <v>0</v>
@@ -40998,7 +41010,7 @@
         <v>0</v>
       </c>
       <c r="BY96" s="1">
-        <v>80.943801879882812</v>
+        <v>80.943801879882813</v>
       </c>
       <c r="BZ96" s="1"/>
       <c r="CA96" s="1">
@@ -41032,7 +41044,7 @@
         <v>16.5318603515625</v>
       </c>
       <c r="CK96" s="1">
-        <v>467.48770141601562</v>
+        <v>467.48770141601563</v>
       </c>
       <c r="CL96" s="1">
         <v>4.0020036697387695</v>
@@ -41053,7 +41065,7 @@
         <v>17.2</v>
       </c>
       <c r="CR96" s="1">
-        <v>78.027359008789062</v>
+        <v>78.027359008789063</v>
       </c>
       <c r="CS96" s="1">
         <v>6.4822406768798828</v>
@@ -41163,7 +41175,7 @@
       </c>
       <c r="EE96" s="1"/>
     </row>
-    <row r="97" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>35380</v>
       </c>
@@ -41204,7 +41216,7 @@
         <v>16.55109977722168</v>
       </c>
       <c r="N97" s="1">
-        <v>31.066482543945312</v>
+        <v>31.066482543945313</v>
       </c>
       <c r="O97" s="1">
         <v>20.326869964599609</v>
@@ -41216,7 +41228,7 @@
         <v>48.428775787353516</v>
       </c>
       <c r="R97" s="1">
-        <v>69.806167602539062</v>
+        <v>69.806167602539063</v>
       </c>
       <c r="S97" s="1">
         <v>47.30230712890625</v>
@@ -41234,7 +41246,7 @@
         <v>0</v>
       </c>
       <c r="X97" s="1">
-        <v>38.571426391601562</v>
+        <v>38.571426391601563</v>
       </c>
       <c r="Y97" s="1">
         <v>0</v>
@@ -41396,7 +41408,7 @@
         <v>0</v>
       </c>
       <c r="BZ97" s="1">
-        <v>88.706497192382812</v>
+        <v>88.706497192382813</v>
       </c>
       <c r="CA97" s="1">
         <v>18.600000000000001</v>
@@ -41471,7 +41483,7 @@
         <v>112.73214721679688</v>
       </c>
       <c r="CY97" s="1">
-        <v>-21.110000610351562</v>
+        <v>-21.110000610351563</v>
       </c>
       <c r="CZ97" s="1">
         <v>29.416263580322266</v>
@@ -41519,7 +41531,7 @@
         <v>1.6000000238418579</v>
       </c>
       <c r="DO97" s="1">
-        <v>16.172622680664062</v>
+        <v>16.172622680664063</v>
       </c>
       <c r="DP97" s="1">
         <v>52.892689004540443</v>
@@ -41537,7 +41549,7 @@
         <v>12553638.4745604</v>
       </c>
       <c r="DU97" s="1">
-        <v>-21.110000610351562</v>
+        <v>-21.110000610351563</v>
       </c>
       <c r="DV97" s="1">
         <v>34.503524588711123</v>
@@ -41555,7 +41567,7 @@
         <v>96.178985595703125</v>
       </c>
       <c r="EA97" s="1">
-        <v>-21.110000610351562</v>
+        <v>-21.110000610351563</v>
       </c>
       <c r="EB97" s="1">
         <v>564.6851806640625</v>
@@ -41570,7 +41582,7 @@
         <v>4.8862299919128418</v>
       </c>
     </row>
-    <row r="98" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>12260</v>
       </c>
@@ -41605,7 +41617,7 @@
         <v>55.561809539794922</v>
       </c>
       <c r="L98" s="1">
-        <v>77.895523071289062</v>
+        <v>77.895523071289063</v>
       </c>
       <c r="M98" s="1">
         <v>30.524980545043945</v>
@@ -41623,7 +41635,7 @@
         <v>39.732467651367188</v>
       </c>
       <c r="R98" s="1">
-        <v>64.162429809570312</v>
+        <v>64.162429809570313</v>
       </c>
       <c r="S98" s="1">
         <v>17.827266693115234</v>
@@ -41693,7 +41705,7 @@
         <v>40.750007629394531</v>
       </c>
       <c r="AP98" s="1">
-        <v>70.373611450195312</v>
+        <v>70.373611450195313</v>
       </c>
       <c r="AQ98" s="1"/>
       <c r="AR98" s="1">
@@ -41848,7 +41860,7 @@
         <v>85.599191904067993</v>
       </c>
       <c r="CS98" s="1">
-        <v>36.375808715820312</v>
+        <v>36.375808715820313</v>
       </c>
       <c r="CT98" s="1">
         <v>76.3</v>
@@ -41864,7 +41876,7 @@
         <v>82.128173828125</v>
       </c>
       <c r="CY98" s="1">
-        <v>-15.552749633789062</v>
+        <v>-15.552749633789063</v>
       </c>
       <c r="CZ98" s="1">
         <v>36.871662139892578</v>
@@ -41957,7 +41969,7 @@
       </c>
       <c r="EE98" s="1"/>
     </row>
-    <row r="99" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>19660</v>
       </c>
@@ -41992,7 +42004,7 @@
         <v>38.919452667236328</v>
       </c>
       <c r="L99" s="1">
-        <v>64.600479125976562</v>
+        <v>64.600479125976563</v>
       </c>
       <c r="M99" s="1">
         <v>27.479621887207031</v>
@@ -42016,7 +42028,7 @@
         <v>19.314727783203125</v>
       </c>
       <c r="T99" s="1">
-        <v>94.067031860351562</v>
+        <v>94.067031860351563</v>
       </c>
       <c r="U99" s="1">
         <v>35.187938690185547</v>
@@ -42067,7 +42079,7 @@
         <v>44.591365814208984</v>
       </c>
       <c r="AK99" s="1">
-        <v>21.785171508789062</v>
+        <v>21.785171508789063</v>
       </c>
       <c r="AL99" s="1">
         <v>0.75452530384063721</v>
@@ -42125,10 +42137,10 @@
         <v>60.271465301513672</v>
       </c>
       <c r="BE99" s="1">
-        <v>33.909866333007812</v>
+        <v>33.909866333007813</v>
       </c>
       <c r="BF99" s="1">
-        <v>94.689529418945312</v>
+        <v>94.689529418945313</v>
       </c>
       <c r="BG99" s="1">
         <v>69.449516296386719</v>
@@ -42170,16 +42182,16 @@
       <c r="BT99" s="1"/>
       <c r="BU99" s="1"/>
       <c r="BV99" s="1">
-        <v>94.067031860351562</v>
+        <v>94.067031860351563</v>
       </c>
       <c r="BW99" s="1">
         <v>0</v>
       </c>
       <c r="BX99" s="1">
-        <v>23.421401977539062</v>
+        <v>23.421401977539063</v>
       </c>
       <c r="BY99" s="1">
-        <v>82.142410278320312</v>
+        <v>82.142410278320313</v>
       </c>
       <c r="BZ99" s="1"/>
       <c r="CA99" s="1">
@@ -42213,7 +42225,7 @@
         <v>16.437829971313477</v>
       </c>
       <c r="CK99" s="1">
-        <v>479.95083618164062</v>
+        <v>479.95083618164063</v>
       </c>
       <c r="CL99" s="1">
         <v>4.4267944097518921</v>
@@ -42253,7 +42265,7 @@
         <v>79.308830261230469</v>
       </c>
       <c r="CY99" s="1">
-        <v>-21.110000610351562</v>
+        <v>-21.110000610351563</v>
       </c>
       <c r="CZ99" s="1">
         <v>35.179656982421875</v>
@@ -42337,14 +42349,14 @@
         <v>1281.0621337890625</v>
       </c>
       <c r="EC99" s="1">
-        <v>330.86660766601562</v>
+        <v>330.86660766601563</v>
       </c>
       <c r="ED99" s="1">
         <v>3.531022310256958</v>
       </c>
       <c r="EE99" s="1"/>
     </row>
-    <row r="100" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>32580</v>
       </c>
@@ -42481,7 +42493,7 @@
         <v>65.684715270996094</v>
       </c>
       <c r="AT100" s="1">
-        <v>93.271072387695312</v>
+        <v>93.271072387695313</v>
       </c>
       <c r="AU100" s="1">
         <v>38.360969543457031</v>
@@ -42728,7 +42740,7 @@
       <c r="DY100" s="1"/>
       <c r="DZ100" s="1"/>
       <c r="EA100" s="1">
-        <v>-21.110000610351562</v>
+        <v>-21.110000610351563</v>
       </c>
       <c r="EB100" s="1">
         <v>867.76678466796875</v>
@@ -42743,7 +42755,7 @@
         <v>16.896379470825195</v>
       </c>
     </row>
-    <row r="101" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>49660</v>
       </c>
@@ -42793,7 +42805,7 @@
         <v>40.345603942871094</v>
       </c>
       <c r="Q101" s="1">
-        <v>44.933425903320312</v>
+        <v>44.933425903320313</v>
       </c>
       <c r="R101" s="1">
         <v>66.543586730957031</v>
@@ -42878,7 +42890,7 @@
         <v>88.639083862304688</v>
       </c>
       <c r="AT101" s="1">
-        <v>95.854812622070312</v>
+        <v>95.854812622070313</v>
       </c>
       <c r="AU101" s="1">
         <v>45.912628173828125</v>
@@ -43126,7 +43138,7 @@
       </c>
       <c r="EE101" s="1"/>
     </row>
-    <row r="102" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>12540</v>
       </c>
@@ -43161,7 +43173,7 @@
         <v>38.786144256591797</v>
       </c>
       <c r="L102" s="1">
-        <v>66.610366821289062</v>
+        <v>66.610366821289063</v>
       </c>
       <c r="M102" s="1">
         <v>34.272457122802734</v>
@@ -43215,7 +43227,7 @@
         <v>31.110931396484375</v>
       </c>
       <c r="AD102" s="1">
-        <v>52.552627563476562</v>
+        <v>52.552627563476563</v>
       </c>
       <c r="AE102" s="1">
         <v>27.068094253540039</v>
@@ -43233,7 +43245,7 @@
         <v>21.185325622558594</v>
       </c>
       <c r="AJ102" s="1">
-        <v>60.710220336914062</v>
+        <v>60.710220336914063</v>
       </c>
       <c r="AK102" s="1">
         <v>0</v>
@@ -43242,7 +43254,7 @@
         <v>0</v>
       </c>
       <c r="AM102" s="1">
-        <v>62.774856567382812</v>
+        <v>62.774856567382813</v>
       </c>
       <c r="AN102" s="1">
         <v>14.563277244567871</v>
@@ -43287,13 +43299,13 @@
         <v>0</v>
       </c>
       <c r="BB102" s="1">
-        <v>9.8894119262695312</v>
+        <v>9.8894119262695313</v>
       </c>
       <c r="BC102" s="1">
         <v>12.808990478515625</v>
       </c>
       <c r="BD102" s="1">
-        <v>51.762527465820312</v>
+        <v>51.762527465820313</v>
       </c>
       <c r="BE102" s="1">
         <v>87.842071533203125</v>
@@ -43326,7 +43338,7 @@
         <v>25.80644416809082</v>
       </c>
       <c r="BO102" s="1">
-        <v>99.755508422851562</v>
+        <v>99.755508422851563</v>
       </c>
       <c r="BP102" s="1">
         <v>56.425220489501953</v>
@@ -43401,7 +43413,7 @@
         <v>24.322549819946289</v>
       </c>
       <c r="CN102" s="1">
-        <v>77.567703247070312</v>
+        <v>77.567703247070313</v>
       </c>
       <c r="CO102" s="1">
         <v>92.2</v>
@@ -43413,7 +43425,7 @@
         <v>13</v>
       </c>
       <c r="CR102" s="1">
-        <v>85.780532836914062</v>
+        <v>85.780532836914063</v>
       </c>
       <c r="CS102" s="1">
         <v>41.696235656738281</v>
@@ -43428,7 +43440,7 @@
         <v>25</v>
       </c>
       <c r="CW102" s="1">
-        <v>21.872268676757812</v>
+        <v>21.872268676757813</v>
       </c>
       <c r="CX102" s="1">
         <v>123.20275115966797</v>
@@ -43446,7 +43458,7 @@
         <v>13.367303848266602</v>
       </c>
       <c r="DC102" s="1">
-        <v>0.93352127075195312</v>
+        <v>0.93352127075195313</v>
       </c>
       <c r="DD102" s="1">
         <v>20.68</v>
@@ -43533,7 +43545,7 @@
         <v>27.28581428527832</v>
       </c>
     </row>
-    <row r="103" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>49180</v>
       </c>
@@ -43586,13 +43598,13 @@
         <v>40.440010070800781</v>
       </c>
       <c r="R103" s="1">
-        <v>68.029739379882812</v>
+        <v>68.029739379882813</v>
       </c>
       <c r="S103" s="1">
         <v>7.393427848815918</v>
       </c>
       <c r="T103" s="1">
-        <v>39.684707641601562</v>
+        <v>39.684707641601563</v>
       </c>
       <c r="U103" s="1">
         <v>39.492038726806641</v>
@@ -43640,7 +43652,7 @@
         <v>17.659807205200195</v>
       </c>
       <c r="AJ103" s="1">
-        <v>47.109939575195312</v>
+        <v>47.109939575195313</v>
       </c>
       <c r="AK103" s="1">
         <v>11.649012565612793</v>
@@ -43652,7 +43664,7 @@
         <v>60.035682678222656</v>
       </c>
       <c r="AN103" s="1">
-        <v>26.113662719726562</v>
+        <v>26.113662719726563</v>
       </c>
       <c r="AO103" s="1">
         <v>52.499996185302734</v>
@@ -43928,7 +43940,7 @@
       </c>
       <c r="EE103" s="1"/>
     </row>
-    <row r="104" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>32820</v>
       </c>
@@ -43981,7 +43993,7 @@
         <v>43.409511566162109</v>
       </c>
       <c r="R104" s="1">
-        <v>55.568679809570312</v>
+        <v>55.568679809570313</v>
       </c>
       <c r="S104" s="1">
         <v>54.772640228271484</v>
@@ -44134,7 +44146,7 @@
         <v>26.545042037963867</v>
       </c>
       <c r="BQ104" s="1">
-        <v>30.484024047851562</v>
+        <v>30.484024047851563</v>
       </c>
       <c r="BR104" s="1">
         <v>33.833900451660156</v>
@@ -44236,7 +44248,7 @@
         <v>84.79730224609375</v>
       </c>
       <c r="CY104" s="1">
-        <v>32.943191528320312</v>
+        <v>32.943191528320313</v>
       </c>
       <c r="CZ104" s="1">
         <v>29.598390579223633</v>
@@ -44326,7 +44338,7 @@
         <v>1438.8260498046875</v>
       </c>
       <c r="EC104" s="1">
-        <v>349.06423950195312</v>
+        <v>349.06423950195313</v>
       </c>
       <c r="ED104" s="1">
         <v>17.095436096191406</v>
@@ -44335,7 +44347,7 @@
         <v>22.723676681518555</v>
       </c>
     </row>
-    <row r="105" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>27140</v>
       </c>
@@ -44379,7 +44391,7 @@
         <v>24.429450988769531</v>
       </c>
       <c r="O105" s="1">
-        <v>18.061721801757812</v>
+        <v>18.061721801757813</v>
       </c>
       <c r="P105" s="1">
         <v>36.058734893798828</v>
@@ -44436,7 +44448,7 @@
         <v>40.109809875488281</v>
       </c>
       <c r="AH105" s="1">
-        <v>93.501296997070312</v>
+        <v>93.501296997070313</v>
       </c>
       <c r="AI105" s="1">
         <v>2.0501143932342529</v>
@@ -44556,7 +44568,7 @@
         <v>0</v>
       </c>
       <c r="BX105" s="1">
-        <v>32.387405395507812</v>
+        <v>32.387405395507813</v>
       </c>
       <c r="BY105" s="1">
         <v>9.2273120880126953</v>
@@ -44707,7 +44719,7 @@
         <v>15.883107631308411</v>
       </c>
       <c r="DW105" s="1">
-        <v>66.570999145507812</v>
+        <v>66.570999145507813</v>
       </c>
       <c r="DX105" s="1">
         <v>0</v>
@@ -44721,7 +44733,7 @@
         <v>1326.5567626953125</v>
       </c>
       <c r="EC105" s="1">
-        <v>292.12796020507812</v>
+        <v>292.12796020507813</v>
       </c>
       <c r="ED105" s="1">
         <v>13.504311561584473</v>
@@ -44730,7 +44742,7 @@
         <v>4.805992603302002</v>
       </c>
     </row>
-    <row r="106" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>12940</v>
       </c>
@@ -44753,10 +44765,10 @@
         <v>23.795141220092773</v>
       </c>
       <c r="H106" s="1">
-        <v>19.839797973632812</v>
+        <v>19.839797973632813</v>
       </c>
       <c r="I106" s="1">
-        <v>25.004776000976562</v>
+        <v>25.004776000976563</v>
       </c>
       <c r="J106" s="1">
         <v>29.254981994628906</v>
@@ -44895,13 +44907,13 @@
         <v>23.59550666809082</v>
       </c>
       <c r="BD106" s="1">
-        <v>43.253616333007812</v>
+        <v>43.253616333007813</v>
       </c>
       <c r="BE106" s="1">
         <v>30.636617660522461</v>
       </c>
       <c r="BF106" s="1">
-        <v>72.130813598632812</v>
+        <v>72.130813598632813</v>
       </c>
       <c r="BG106" s="1">
         <v>69.924583435058594</v>
@@ -44958,7 +44970,7 @@
         <v>13.122118949890137</v>
       </c>
       <c r="BY106" s="1">
-        <v>8.9923782348632812</v>
+        <v>8.9923782348632813</v>
       </c>
       <c r="BZ106" s="1"/>
       <c r="CA106" s="1">
@@ -45032,7 +45044,7 @@
         <v>110.79654693603516</v>
       </c>
       <c r="CY106" s="1">
-        <v>-21.110000610351562</v>
+        <v>-21.110000610351563</v>
       </c>
       <c r="CZ106" s="1">
         <v>30.550155639648438</v>
@@ -45098,7 +45110,7 @@
         <v>35909042.880894303</v>
       </c>
       <c r="DU106" s="1">
-        <v>-21.110000610351562</v>
+        <v>-21.110000610351563</v>
       </c>
       <c r="DV106" s="1">
         <v>65.459526691990064</v>
@@ -45116,7 +45128,7 @@
         <v>6.4696483612060547</v>
       </c>
       <c r="EA106" s="1">
-        <v>-21.110000610351562</v>
+        <v>-21.110000610351563</v>
       </c>
       <c r="EB106" s="1">
         <v>586.19281005859375</v>
@@ -45128,6 +45140,92 @@
         <v>13.536445617675781</v>
       </c>
       <c r="EE106" s="1"/>
+    </row>
+    <row r="107" spans="1:135" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>674</v>
+      </c>
+      <c r="D107" t="s">
+        <v>675</v>
+      </c>
+      <c r="E107" s="9">
+        <v>0</v>
+      </c>
+      <c r="F107" s="9">
+        <v>106</v>
+      </c>
+      <c r="G107" s="9">
+        <v>0</v>
+      </c>
+      <c r="H107" s="9">
+        <v>0</v>
+      </c>
+      <c r="I107" s="9">
+        <v>0</v>
+      </c>
+      <c r="J107" s="9">
+        <v>0</v>
+      </c>
+      <c r="K107" s="9">
+        <v>0</v>
+      </c>
+      <c r="L107" s="9">
+        <v>0</v>
+      </c>
+      <c r="M107" s="9">
+        <v>0</v>
+      </c>
+      <c r="N107" s="9">
+        <v>0</v>
+      </c>
+      <c r="O107" s="9">
+        <v>0</v>
+      </c>
+      <c r="P107" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="9">
+        <v>0</v>
+      </c>
+      <c r="R107" s="9">
+        <v>0</v>
+      </c>
+      <c r="S107" s="9">
+        <v>0</v>
+      </c>
+      <c r="T107" s="9">
+        <v>0</v>
+      </c>
+      <c r="U107" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA107">
+        <v>39</v>
+      </c>
+      <c r="CB107">
+        <v>32</v>
+      </c>
+      <c r="CO107" s="9">
+        <v>92.5</v>
+      </c>
+      <c r="CP107" s="9">
+        <v>59.5</v>
+      </c>
+      <c r="CQ107" s="9">
+        <v>32.6</v>
+      </c>
+      <c r="CT107" s="9">
+        <v>103.2</v>
+      </c>
+      <c r="DE107" s="9">
+        <v>15.9</v>
+      </c>
+      <c r="DH107" s="9">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="DI107" s="9">
+        <v>0.55100000000000005</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45142,23 +45240,23 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
-    <col min="5" max="5" width="50.33203125" customWidth="1"/>
-    <col min="7" max="7" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.1640625" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.375" customWidth="1"/>
+    <col min="7" max="7" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.125" customWidth="1"/>
+    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21" customWidth="1"/>
     <col min="22" max="22" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="5" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>636</v>
       </c>
@@ -45226,7 +45324,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -45294,7 +45392,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -45335,7 +45433,7 @@
         <v>297</v>
       </c>
       <c r="N3" s="1">
-        <v>46.566299438476562</v>
+        <v>46.566299438476563</v>
       </c>
       <c r="O3" s="1">
         <v>43.2</v>
@@ -45362,7 +45460,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -45430,7 +45528,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -45498,7 +45596,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -45566,7 +45664,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -45634,7 +45732,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -45702,7 +45800,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -45770,7 +45868,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -45838,7 +45936,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -45906,7 +46004,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -45974,7 +46072,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -46042,7 +46140,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -46074,7 +46172,7 @@
         <v>274</v>
       </c>
       <c r="K14" s="1">
-        <v>-21.110000610351562</v>
+        <v>-21.110000610351563</v>
       </c>
       <c r="L14" s="1">
         <v>27.865886688232422</v>
@@ -46110,7 +46208,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -46178,7 +46276,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -46225,7 +46323,7 @@
         <v>74.64126443862915</v>
       </c>
       <c r="P16" s="1">
-        <v>70.328140258789062</v>
+        <v>70.328140258789063</v>
       </c>
       <c r="Q16" s="1">
         <v>66.015016078948975</v>
@@ -46246,7 +46344,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -46314,7 +46412,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -46382,7 +46480,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -46426,7 +46524,7 @@
         <v>91.64111328125</v>
       </c>
       <c r="O19" s="1">
-        <v>81.835037231445312</v>
+        <v>81.835037231445313</v>
       </c>
       <c r="P19" s="1">
         <v>54.988430023193359</v>
@@ -46450,7 +46548,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -46482,7 +46580,7 @@
         <v>274</v>
       </c>
       <c r="K20" s="1">
-        <v>-21.110000610351562</v>
+        <v>-21.110000610351563</v>
       </c>
       <c r="L20" s="1">
         <v>121741.0234375</v>
@@ -46518,7 +46616,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -46586,7 +46684,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -46654,7 +46752,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -46722,7 +46820,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -46790,7 +46888,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -46858,7 +46956,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>92</v>
       </c>
@@ -46926,7 +47024,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -46994,7 +47092,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -47062,7 +47160,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -47130,7 +47228,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -47198,7 +47296,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -47266,7 +47364,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>95</v>
       </c>
@@ -47307,7 +47405,7 @@
         <v>296</v>
       </c>
       <c r="N32" s="1">
-        <v>20.534500122070312</v>
+        <v>20.534500122070313</v>
       </c>
       <c r="O32" s="1">
         <v>24.925021648406982</v>
@@ -47334,7 +47432,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -47402,7 +47500,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -47470,7 +47568,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>98</v>
       </c>
@@ -47538,7 +47636,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -47606,7 +47704,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -47674,7 +47772,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -47742,7 +47840,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>101</v>
       </c>
@@ -47810,7 +47908,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -47845,7 +47943,7 @@
         <v>30.700000762939453</v>
       </c>
       <c r="L40" s="1">
-        <v>70.300003051757812</v>
+        <v>70.300003051757813</v>
       </c>
       <c r="M40" t="s">
         <v>297</v>
@@ -47878,7 +47976,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>103</v>
       </c>
@@ -47946,7 +48044,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>104</v>
       </c>
@@ -48014,7 +48112,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>105</v>
       </c>
@@ -48082,7 +48180,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>106</v>
       </c>
@@ -48150,7 +48248,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>107</v>
       </c>
@@ -48218,7 +48316,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -48286,7 +48384,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>108</v>
       </c>
@@ -48354,7 +48452,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>109</v>
       </c>
@@ -48422,7 +48520,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>110</v>
       </c>
@@ -48454,7 +48552,7 @@
         <v>274</v>
       </c>
       <c r="K49" s="1">
-        <v>-21.110000610351562</v>
+        <v>-21.110000610351563</v>
       </c>
       <c r="L49" s="1">
         <v>2776.570068359375</v>
@@ -48463,7 +48561,7 @@
         <v>296</v>
       </c>
       <c r="N49" s="1">
-        <v>-21.110000610351562</v>
+        <v>-21.110000610351563</v>
       </c>
       <c r="O49" s="1">
         <v>-2</v>
@@ -48475,7 +48573,7 @@
         <v>321.90310287475586</v>
       </c>
       <c r="R49" s="1">
-        <v>292.61001586914062</v>
+        <v>292.61001586914063</v>
       </c>
       <c r="S49" t="s">
         <v>311</v>
@@ -48490,7 +48588,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -48522,7 +48620,7 @@
         <v>291</v>
       </c>
       <c r="K50" s="1">
-        <v>20.106338500976562</v>
+        <v>20.106338500976563</v>
       </c>
       <c r="L50" s="1">
         <v>87.32470703125</v>
@@ -48558,7 +48656,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>112</v>
       </c>
@@ -48626,7 +48724,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -48694,7 +48792,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -48762,7 +48860,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>114</v>
       </c>
@@ -48830,7 +48928,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -48898,7 +48996,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -48966,7 +49064,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>116</v>
       </c>
@@ -49034,7 +49132,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>117</v>
       </c>
